--- a/outputs/ML_Results/dist_commute/Wien.xlsx
+++ b/outputs/ML_Results/dist_commute/Wien.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ25494940" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ25808391" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ26116938" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ26427482" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ26747142" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ27069650" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ27412015" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ27712805" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ28015736" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ48038137" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ48431239" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ48815714" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ49194290" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ49655699" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ50021425" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ50367714" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ50703252" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ51048321" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,205 +466,192 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16304.95838442766</v>
+        <v>15564.00642328113</v>
       </c>
       <c r="C2" t="n">
-        <v>1.512911505019484e-09</v>
+        <v>2.040045732885005e-09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+Matura]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-761.1231578812957</v>
+        <v>-391.0937004115779</v>
       </c>
       <c r="C3" t="n">
-        <v>0.31120388013071</v>
+        <v>0.2519503641231707</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1046.607835561588</v>
+        <v>-80.90200067768023</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1526961774483972</v>
+        <v>0.8255788398047164</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-729.4846795781027</v>
+        <v>-168.2265084120404</v>
       </c>
       <c r="C5" t="n">
-        <v>0.323067638093164</v>
+        <v>0.1938187430840698</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-172.8338353512103</v>
+        <v>-1617.915941088716</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1821634318882394</v>
+        <v>5.321938716298819e-09</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1630.846283811756</v>
+        <v>2.207544243629645</v>
       </c>
       <c r="C7" t="n">
-        <v>4.178900900350645e-09</v>
+        <v>0.8615698987650022</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.103655639507767</v>
+        <v>-411.5918882146606</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8680270050508225</v>
+        <v>1.023688495886929e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-409.6675393736831</v>
+        <v>735.6113021815437</v>
       </c>
       <c r="C9" t="n">
-        <v>1.130115435147471e-05</v>
+        <v>2.262765448153656e-19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>737.8939135815808</v>
+        <v>0.08356502631882656</v>
       </c>
       <c r="C10" t="n">
-        <v>1.815582862963612e-19</v>
+        <v>0.1480899081835948</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.08174757292486695</v>
+        <v>9.110529732999537e-06</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1573061139380355</v>
+        <v>0.7086303400114848</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.117197606182168e-06</v>
+        <v>-32.2227939562399</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7084256761465142</v>
+        <v>0.03135170956501851</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-33.07625592291154</v>
+        <v>-20.37283180905422</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02737946458361145</v>
+        <v>0.1787157302695445</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-21.07671185547287</v>
+        <v>-4297.976554692949</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1646170819149418</v>
+        <v>0.04780802650029996</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4268.418176810242</v>
+        <v>-6004.602961493107</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04937956444696363</v>
+        <v>0.002204087660514412</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-5841.290345794279</v>
+        <v>83.96556927551251</v>
       </c>
       <c r="C16" t="n">
-        <v>0.002996268668347664</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>178.7693678083489</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.9511470092250095</v>
+        <v>0.9770314929306146</v>
       </c>
     </row>
   </sheetData>
@@ -678,7 +665,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,205 +697,192 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15315.36548374934</v>
+        <v>15161.69836584974</v>
       </c>
       <c r="C2" t="n">
-        <v>6.70810025895219e-09</v>
+        <v>2.898898039229992e-09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+Matura]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-167.6750820181915</v>
+        <v>-127.6767808276666</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8194531585507323</v>
+        <v>0.7055619708329022</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-271.3595490582223</v>
+        <v>203.0291286338824</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7041014721096304</v>
+        <v>0.5792910208958866</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>60.59865435367453</v>
+        <v>-131.7938497435691</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9332540965683396</v>
+        <v>0.301959430199405</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-132.7574030050611</v>
+        <v>-1645.611790983491</v>
       </c>
       <c r="C6" t="n">
-        <v>0.298778953442455</v>
+        <v>2.194742067547877e-09</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1649.141218816535</v>
+        <v>-5.78934289556878</v>
       </c>
       <c r="C7" t="n">
-        <v>2.163036638251532e-09</v>
+        <v>0.646971635516374</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.803370124086684</v>
+        <v>-451.7076328913233</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6462302033475732</v>
+        <v>9.694039469065625e-07</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-450.8425831489806</v>
+        <v>777.030895345513</v>
       </c>
       <c r="C9" t="n">
-        <v>1.042082586805974e-06</v>
+        <v>2.821228555979995e-22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>777.1019024759364</v>
+        <v>0.05640526837733201</v>
       </c>
       <c r="C10" t="n">
-        <v>2.841291868686976e-22</v>
+        <v>0.3140336584510198</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.05574730232293898</v>
+        <v>3.761512228635299e-07</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3204263861115056</v>
+        <v>0.9873095317558158</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.520903840343778e-07</v>
+        <v>-24.62325072798235</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9847517051659948</v>
+        <v>0.09498140981080634</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-24.76558034011984</v>
+        <v>-21.54187441590123</v>
       </c>
       <c r="C13" t="n">
-        <v>0.09343077157788349</v>
+        <v>0.1491279283367027</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-21.61204151946716</v>
+        <v>-3244.287588647827</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1479577946800929</v>
+        <v>0.1296531666331054</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-3244.326623245341</v>
+        <v>-5963.2801289904</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1297086686414833</v>
+        <v>0.002056442357301361</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-5924.573057503708</v>
+        <v>2118.498197719266</v>
       </c>
       <c r="C16" t="n">
-        <v>0.002289814440996995</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2134.481192761486</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.4606172111305589</v>
+        <v>0.4637804926372833</v>
       </c>
     </row>
   </sheetData>
@@ -922,7 +896,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -954,205 +928,192 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13464.21596399289</v>
+        <v>13032.73996673841</v>
       </c>
       <c r="C2" t="n">
-        <v>4.169053317075634e-07</v>
+        <v>3.951090839748804e-07</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+Matura]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-457.8547063136083</v>
+        <v>-281.2241643911053</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5290528154551821</v>
+        <v>0.4098941131007241</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-671.1086815698573</v>
+        <v>-298.3023388996229</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3426593982687112</v>
+        <v>0.4099326254338066</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-683.7044663723067</v>
+        <v>-122.5124130333592</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3364771568070565</v>
+        <v>0.3405219275481347</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-123.9016448513498</v>
+        <v>-1679.171208983657</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3351950034267285</v>
+        <v>8.853024647622108e-10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1688.942392333972</v>
+        <v>6.785339239894712</v>
       </c>
       <c r="C7" t="n">
-        <v>7.56563416937366e-10</v>
+        <v>0.5928086242397401</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.672451262042919</v>
+        <v>-444.3896964575188</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5990488346012581</v>
+        <v>1.495499499738234e-06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-442.3594126324358</v>
+        <v>777.2957195611036</v>
       </c>
       <c r="C9" t="n">
-        <v>1.6968228514672e-06</v>
+        <v>9.407951691980246e-22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>777.1302490057282</v>
+        <v>0.1019619045290361</v>
       </c>
       <c r="C10" t="n">
-        <v>9.687671759111828e-22</v>
+        <v>0.07251222809770269</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1005785096785307</v>
+        <v>-8.5663535695798e-06</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07672165225606929</v>
+        <v>0.7213132574352079</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-8.398889014874896e-06</v>
+        <v>-15.64290359491772</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7265828142676766</v>
+        <v>0.2966453739160945</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-16.11488115320337</v>
+        <v>-8.312472656975068</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2829626162908102</v>
+        <v>0.5807591798392753</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-8.545062947052131</v>
+        <v>-3264.438132422921</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5703739331266502</v>
+        <v>0.1219039088159581</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-3276.18869303261</v>
+        <v>-6713.40638422446</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1206188268411186</v>
+        <v>0.0004718287684443202</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-6623.873393471459</v>
+        <v>-38.02030109243424</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0005818076482240378</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>20.92432657544873</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.9941789999414572</v>
+        <v>0.9894165385810936</v>
       </c>
     </row>
   </sheetData>
@@ -1166,7 +1127,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1198,205 +1159,192 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13084.11253191521</v>
+        <v>13214.81636286243</v>
       </c>
       <c r="C2" t="n">
-        <v>1.15656304593133e-06</v>
+        <v>3.716855497206852e-07</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+Matura]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>143.430491748374</v>
+        <v>-21.09210037404648</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8501165841820741</v>
+        <v>0.9508280059482381</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>102.4024114727289</v>
+        <v>19.20205287426006</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8895880718828003</v>
+        <v>0.9584874912515369</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.5473043791071</v>
+        <v>-68.44637837920331</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8493493348352086</v>
+        <v>0.5944103774745833</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-67.84581381176025</v>
+        <v>-1548.136855769964</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5978194851855683</v>
+        <v>1.867852461868582e-08</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1545.21931153455</v>
+        <v>-5.523145479820599</v>
       </c>
       <c r="C7" t="n">
-        <v>2.09977085973859e-08</v>
+        <v>0.6649028161996674</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.512701969219198</v>
+        <v>-375.705318199687</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6655509193045486</v>
+        <v>5.327182483665493e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-376.0320201283948</v>
+        <v>809.4932109542676</v>
       </c>
       <c r="C9" t="n">
-        <v>5.278307346256785e-05</v>
+        <v>1.011003710622632e-23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>809.3466248729799</v>
+        <v>0.09054337718822074</v>
       </c>
       <c r="C10" t="n">
-        <v>1.051281717353539e-23</v>
+        <v>0.1147702871106723</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.09087296136686274</v>
+        <v>-1.12169990053856e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>0.113680116898046</v>
+        <v>0.6315764110588165</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1.124730414659006e-05</v>
+        <v>-14.43548996283053</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6307178445355841</v>
+        <v>0.3353925729068744</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-14.33092545533942</v>
+        <v>-15.40236575347479</v>
       </c>
       <c r="C13" t="n">
-        <v>0.339310442932405</v>
+        <v>0.3137257893482888</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-15.35741666399444</v>
+        <v>-1835.883723185776</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3152755655362025</v>
+        <v>0.3909412403463206</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1831.006449309261</v>
+        <v>-6853.446959914633</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3923108284357381</v>
+        <v>0.0003742233526645857</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-6877.323217921121</v>
+        <v>1185.398098222433</v>
       </c>
       <c r="C16" t="n">
-        <v>0.000368358109114354</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1165.526667955696</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.6857664878670423</v>
+        <v>0.6804529694093098</v>
       </c>
     </row>
   </sheetData>
@@ -1410,7 +1358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1442,205 +1390,192 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15972.44303384225</v>
+        <v>15534.00367424062</v>
       </c>
       <c r="C2" t="n">
-        <v>2.567619308201366e-09</v>
+        <v>2.444823708909066e-09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+Matura]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-511.6563184809831</v>
+        <v>-359.7334155573743</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4903631551958428</v>
+        <v>0.297433358913709</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-794.6533913702294</v>
+        <v>-393.0175901806799</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2690269650165457</v>
+        <v>0.2874578355049398</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-824.7108119715049</v>
+        <v>-97.20655465418244</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2565342560352595</v>
+        <v>0.4508733138221021</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-100.3507374150773</v>
+        <v>-1632.107937466568</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4366920998179037</v>
+        <v>4.681868904897734e-09</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1642.736170176792</v>
+        <v>1.913248636913671</v>
       </c>
       <c r="C7" t="n">
-        <v>3.944006363386216e-09</v>
+        <v>0.880985922739152</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.840297272621335</v>
+        <v>-399.491043170475</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8855057077143772</v>
+        <v>1.855484426980094e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-396.8873099865883</v>
+        <v>729.7272075851233</v>
       </c>
       <c r="C9" t="n">
-        <v>2.138289935334545e-05</v>
+        <v>2.830260560663993e-19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>730.3615433519142</v>
+        <v>0.07126099610638251</v>
       </c>
       <c r="C10" t="n">
-        <v>2.671897616293319e-19</v>
+        <v>0.215883842376783</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.06922257919456969</v>
+        <v>-4.953738121785727e-06</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2299559639387124</v>
+        <v>0.8345254609670845</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-4.749108451142462e-06</v>
+        <v>-25.12169546440677</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8412938229205915</v>
+        <v>0.09394003214957569</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-25.48881316112915</v>
+        <v>-22.17334354942553</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0894662413142423</v>
+        <v>0.1468043537315911</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-22.21584494895298</v>
+        <v>-3190.289053143269</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1460699121907605</v>
+        <v>0.1428125299445207</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-3181.563170170264</v>
+        <v>-6589.956495129978</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1439497603614822</v>
+        <v>0.0007476528499656639</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-6468.964946344457</v>
+        <v>1234.54254164007</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0009801584677634654</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1294.327341079034</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.6600086785492021</v>
+        <v>0.6746305629752161</v>
       </c>
     </row>
   </sheetData>
@@ -1654,7 +1589,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1686,205 +1621,192 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16011.27392925554</v>
+        <v>15088.35562453749</v>
       </c>
       <c r="C2" t="n">
-        <v>1.575584161461467e-09</v>
+        <v>3.814812522749387e-09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+Matura]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1009.445870643734</v>
+        <v>-179.3493055126713</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1804459591263172</v>
+        <v>0.6005091597027234</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1050.209234047644</v>
+        <v>-159.3001505028262</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1529870382620429</v>
+        <v>0.661379191019369</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1021.613473125575</v>
+        <v>-88.50904660506973</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1670957081637298</v>
+        <v>0.4871604104883421</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-94.1449141295202</v>
+        <v>-1797.382374401847</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4600488630420914</v>
+        <v>7.421636235179066e-11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1819.66292122206</v>
+        <v>0.322667354118459</v>
       </c>
       <c r="C7" t="n">
-        <v>4.674808354533886e-11</v>
+        <v>0.9796863375047218</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2761902664277773</v>
+        <v>-446.0341821235484</v>
       </c>
       <c r="C8" t="n">
-        <v>0.982609602050733</v>
+        <v>1.659786644672771e-06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-442.4636366075361</v>
+        <v>848.6218747620194</v>
       </c>
       <c r="C9" t="n">
-        <v>2.019824927825684e-06</v>
+        <v>1.898895854356808e-25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>849.4703912098474</v>
+        <v>0.1144653348056466</v>
       </c>
       <c r="C10" t="n">
-        <v>1.687063602668456e-25</v>
+        <v>0.04681533452252361</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1103789799788871</v>
+        <v>2.170298152243693e-06</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05554263083365327</v>
+        <v>0.9256460905461489</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.133543406096425e-06</v>
+        <v>-29.89014352248457</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9268922160738744</v>
+        <v>0.04420030506635398</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-30.51205945832195</v>
+        <v>-23.9716735797459</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04004437267147935</v>
+        <v>0.1102034499590424</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-24.38904278524033</v>
+        <v>-3696.709361166511</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1041752488044694</v>
+        <v>0.08549699236022656</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-3652.414069203212</v>
+        <v>-5821.699188706059</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08930574390457535</v>
+        <v>0.002885951682545536</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-5601.152971271029</v>
+        <v>-507.8660807429724</v>
       </c>
       <c r="C16" t="n">
-        <v>0.004274569178610227</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>-390.8997709008677</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.8932542626692667</v>
+        <v>0.861555132809653</v>
       </c>
     </row>
   </sheetData>
@@ -1898,7 +1820,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1930,205 +1852,192 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15723.177805241</v>
+        <v>15143.12242992946</v>
       </c>
       <c r="C2" t="n">
-        <v>3.662359485980592e-09</v>
+        <v>4.128947200603713e-09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+Matura]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-636.8993394192038</v>
+        <v>-317.3608175456213</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3957450999630417</v>
+        <v>0.3594282554236714</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-862.8004301394817</v>
+        <v>-330.816668400657</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2370574708807683</v>
+        <v>0.3717394724384717</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-870.7635130390506</v>
+        <v>-146.4311758038386</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2366743716796942</v>
+        <v>0.2553578062775655</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-148.3292819414071</v>
+        <v>-1546.247534808731</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2493433269414349</v>
+        <v>2.247846951675864e-08</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1554.658073268186</v>
+        <v>-7.51880873455982</v>
       </c>
       <c r="C7" t="n">
-        <v>1.930132154750336e-08</v>
+        <v>0.5544042221149315</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7.476192376347613</v>
+        <v>-371.70070532663</v>
       </c>
       <c r="C8" t="n">
-        <v>0.556672444185393</v>
+        <v>7.093918575471537e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-369.3090578501701</v>
+        <v>741.0150574015516</v>
       </c>
       <c r="C9" t="n">
-        <v>7.95853948531409e-05</v>
+        <v>8.069350188706726e-20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>741.2175307656491</v>
+        <v>0.05997553256932597</v>
       </c>
       <c r="C10" t="n">
-        <v>7.923220931405508e-20</v>
+        <v>0.2941706097978063</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.05775713989106922</v>
+        <v>9.45777047893102e-07</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3129158505713182</v>
+        <v>0.9683397082204751</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.087986563099988e-06</v>
+        <v>-22.21772885465363</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9635848514985818</v>
+        <v>0.1380193868693297</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-22.74352486631823</v>
+        <v>-19.61355064392484</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1292843527376882</v>
+        <v>0.1927303607426932</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-19.94741090564631</v>
+        <v>-4225.014943990814</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1854374281459504</v>
+        <v>0.04852868639730452</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4222.508734680209</v>
+        <v>-6424.500252837506</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04867276263923996</v>
+        <v>0.001114566128041987</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-6291.624996360255</v>
+        <v>2438.90346190184</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001460504824066324</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2505.943392887883</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3929610140250135</v>
+        <v>0.4055508915084639</v>
       </c>
     </row>
   </sheetData>
@@ -2142,7 +2051,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2174,205 +2083,192 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15928.11623091767</v>
+        <v>15404.47170854902</v>
       </c>
       <c r="C2" t="n">
-        <v>4.678195015670851e-09</v>
+        <v>5.069111938054369e-09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+Matura]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-580.5017064457242</v>
+        <v>-311.5828529286151</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4313904834453467</v>
+        <v>0.3723229738774081</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-804.5353388452044</v>
+        <v>-108.6400863387226</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2620491175272276</v>
+        <v>0.7704694093587219</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-596.6065223249107</v>
+        <v>-133.6951344126564</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4095284217246967</v>
+        <v>0.309468435943858</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-136.6442289022354</v>
+        <v>-1634.544845577873</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2991461689485625</v>
+        <v>7.259543146442223e-09</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1646.966220661968</v>
+        <v>-2.904861095560552</v>
       </c>
       <c r="C7" t="n">
-        <v>5.917245530345581e-09</v>
+        <v>0.8239768622394246</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.965422535630001</v>
+        <v>-463.5664196573799</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8203832894343414</v>
+        <v>9.027440263354493e-07</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-461.1165602582531</v>
+        <v>790.7879233509702</v>
       </c>
       <c r="C9" t="n">
-        <v>1.045298094740559e-06</v>
+        <v>2.298071237652127e-21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>791.3143273026196</v>
+        <v>0.09013962819305228</v>
       </c>
       <c r="C10" t="n">
-        <v>2.183986972988228e-21</v>
+        <v>0.1252245242826846</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0877192465947559</v>
+        <v>-1.27160627876693e-06</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1362444528427767</v>
+        <v>0.9588692572482228</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1.075162609281611e-06</v>
+        <v>-22.61819907998355</v>
       </c>
       <c r="C12" t="n">
-        <v>0.965222899873649</v>
+        <v>0.1346319978160821</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-23.06961261001481</v>
+        <v>-21.33197352578988</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1273246724182054</v>
+        <v>0.1656926581660219</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-21.56382748024554</v>
+        <v>-4158.877505048775</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1612457895294097</v>
+        <v>0.05914867602324015</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4162.433822421073</v>
+        <v>-7018.488551213845</v>
       </c>
       <c r="C15" t="n">
-        <v>0.05894861991840369</v>
+        <v>0.0004471670249081249</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-6890.074415527544</v>
+        <v>1548.105043832677</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0005929647720306191</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1633.436845063781</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.5880477561136771</v>
+        <v>0.6074365041565296</v>
       </c>
     </row>
   </sheetData>
@@ -2386,7 +2282,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2418,205 +2314,192 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12784.40803136023</v>
+        <v>11584.20147062333</v>
       </c>
       <c r="C2" t="n">
-        <v>1.619485903417196e-06</v>
+        <v>6.494413462856286e-06</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+Matura]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1281.275976686034</v>
+        <v>-344.7654445435874</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09179178962980228</v>
+        <v>0.310380173240354</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1454.031795001062</v>
+        <v>-330.5727673517993</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04959554264185542</v>
+        <v>0.3658471627243087</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1430.896984360818</v>
+        <v>-119.5799685235182</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05577021745079463</v>
+        <v>0.3487111491563339</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-127.2789037093987</v>
+        <v>-1629.09907392681</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3187251127632963</v>
+        <v>2.763503507899233e-09</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1654.443277398511</v>
+        <v>3.866126712177499</v>
       </c>
       <c r="C7" t="n">
-        <v>1.642047523284987e-09</v>
+        <v>0.7575269649104426</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.409435622702645</v>
+        <v>-373.9332256971681</v>
       </c>
       <c r="C8" t="n">
-        <v>0.785406278471822</v>
+        <v>4.451780412788215e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-371.0888932689605</v>
+        <v>780.526016590178</v>
       </c>
       <c r="C9" t="n">
-        <v>5.072534737896441e-05</v>
+        <v>1.135987081061133e-22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>783.6052169293728</v>
+        <v>0.08030740285364268</v>
       </c>
       <c r="C10" t="n">
-        <v>7.762975964211095e-23</v>
+        <v>0.1529579239245949</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0773873623728541</v>
+        <v>8.358980023061625e-06</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1685190822387829</v>
+        <v>0.716526272648601</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.025099744322603e-06</v>
+        <v>-8.237478547613147</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6949829940146302</v>
+        <v>0.5780703641704894</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-9.225881135612227</v>
+        <v>-0.4027868557088388</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5335198559113659</v>
+        <v>0.9788866964001973</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.9051070745144809</v>
+        <v>-3571.652215029767</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9525731132860442</v>
+        <v>0.09427743884918879</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-3623.119566823372</v>
+        <v>-5736.889077964642</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08956500623431625</v>
+        <v>0.002959560396638322</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-5527.873708845069</v>
+        <v>-1977.862540353661</v>
       </c>
       <c r="C16" t="n">
-        <v>0.004253003733767388</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>-1833.552661027596</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.5218578644964524</v>
+        <v>0.4895730972762767</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Wien.xlsx
+++ b/outputs/ML_Results/dist_commute/Wien.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ48038137" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ48431239" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ48815714" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ49194290" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ49655699" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ50021425" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ50367714" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ50703252" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ51048321" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ36027897" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ36326735" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ36629860" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ36915427" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ37198380" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ37475921" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ37750889" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ38025746" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ38303048" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,192 +466,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15564.00642328113</v>
+        <v>13555.44190447126</v>
       </c>
       <c r="C2" t="n">
-        <v>2.040045732885005e-09</v>
+        <v>1.418793156274174e-07</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-391.0937004115779</v>
+        <v>-1509.445913128324</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2519503641231707</v>
+        <v>0.1246886310418629</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-80.90200067768023</v>
+        <v>-16.77670568176245</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8255788398047164</v>
+        <v>0.9642564649645843</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-168.2265084120404</v>
+        <v>-382.1831935716733</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1938187430840698</v>
+        <v>0.273349870161887</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1617.915941088716</v>
+        <v>-3.186425895658545</v>
       </c>
       <c r="C6" t="n">
-        <v>5.321938716298819e-09</v>
+        <v>0.9952086515621998</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.207544243629645</v>
+        <v>-5.852720834962383</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8615698987650022</v>
+        <v>0.9901066343687865</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-411.5918882146606</v>
+        <v>447.0728913545662</v>
       </c>
       <c r="C8" t="n">
-        <v>1.023688495886929e-05</v>
+        <v>0.1601180524192385</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>735.6113021815437</v>
+        <v>-164.2743580820305</v>
       </c>
       <c r="C9" t="n">
-        <v>2.262765448153656e-19</v>
+        <v>0.2057544497045693</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.08356502631882656</v>
+        <v>-1595.774758980898</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1480899081835948</v>
+        <v>9.148337785310219e-09</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.110529732999537e-06</v>
+        <v>3.261487426418942</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7086303400114848</v>
+        <v>0.7973075426448593</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-32.2227939562399</v>
+        <v>-405.0414845185491</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03135170956501851</v>
+        <v>1.881075203135512e-05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-20.37283180905422</v>
+        <v>743.6286868438661</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1787157302695445</v>
+        <v>1.480137505004098e-19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4297.976554692949</v>
+        <v>0.07498663951167095</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04780802650029996</v>
+        <v>0.195555038193901</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-6004.602961493107</v>
+        <v>1.198225976528391e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.002204087660514412</v>
+        <v>0.6251371926639135</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>IntersecDensity_res</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-32.37897003843437</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.03142803213702586</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-20.42998274459477</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1777867668406651</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-4568.579164599862</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.03631691156020431</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-5621.638021237317</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.004445937306827749</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>83.96556927551251</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.9770314929306146</v>
+      <c r="B20" t="n">
+        <v>430.8292140419089</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.8831756031706297</v>
       </c>
     </row>
   </sheetData>
@@ -665,7 +717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -697,192 +749,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15161.69836584974</v>
+        <v>13273.81924980565</v>
       </c>
       <c r="C2" t="n">
-        <v>2.898898039229992e-09</v>
+        <v>1.765935053571077e-07</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-127.6767808276666</v>
+        <v>-689.3528239708457</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7055619708329022</v>
+        <v>0.4926869988690564</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>203.0291286338824</v>
+        <v>-228.8934234326859</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5792910208958866</v>
+        <v>0.5397955658744562</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-131.7938497435691</v>
+        <v>-350.142072622354</v>
       </c>
       <c r="C5" t="n">
-        <v>0.301959430199405</v>
+        <v>0.3120865023808761</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1645.611790983491</v>
+        <v>139.75595358904</v>
       </c>
       <c r="C6" t="n">
-        <v>2.194742067547877e-09</v>
+        <v>0.7910084310702272</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.78934289556878</v>
+        <v>408.1010128730385</v>
       </c>
       <c r="C7" t="n">
-        <v>0.646971635516374</v>
+        <v>0.3849893886394058</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-451.7076328913233</v>
+        <v>525.1273214851644</v>
       </c>
       <c r="C8" t="n">
-        <v>9.694039469065625e-07</v>
+        <v>0.09599786783435674</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>777.030895345513</v>
+        <v>-127.2268461559661</v>
       </c>
       <c r="C9" t="n">
-        <v>2.821228555979995e-22</v>
+        <v>0.3205946048213959</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.05640526837733201</v>
+        <v>-1627.504143951454</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3140336584510198</v>
+        <v>3.567686981287683e-09</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.761512228635299e-07</v>
+        <v>-4.244521982109296</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9873095317558158</v>
+        <v>0.737909221079899</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-24.62325072798235</v>
+        <v>-433.8572015518967</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09498140981080634</v>
+        <v>3.640506367130303e-06</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-21.54187441590123</v>
+        <v>782.0620864579307</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1491279283367027</v>
+        <v>3.004076576463383e-22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3244.287588647827</v>
+        <v>0.05031162978784475</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1296531666331054</v>
+        <v>0.370384037151783</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-5963.2801289904</v>
+        <v>4.852257526055597e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.002056442357301361</v>
+        <v>0.838478595300137</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>IntersecDensity_res</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-25.8300994066558</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0813077525853408</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-21.56261233473853</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1492168219670688</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-3634.723012583142</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.09149019942977701</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-5547.533387542877</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.00448667709000096</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>2118.498197719266</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.4637804926372833</v>
+      <c r="B20" t="n">
+        <v>2176.830806084886</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4537265057791767</v>
       </c>
     </row>
   </sheetData>
@@ -896,7 +1000,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -928,192 +1032,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13032.73996673841</v>
+        <v>10912.00115423993</v>
       </c>
       <c r="C2" t="n">
-        <v>3.951090839748804e-07</v>
+        <v>1.909976197756914e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-281.2241643911053</v>
+        <v>-928.7167953463359</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4098941131007241</v>
+        <v>0.3412287266558685</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-298.3023388996229</v>
+        <v>248.0321905449479</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4099326254338066</v>
+        <v>0.5009504823751382</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-122.5124130333592</v>
+        <v>-45.45534511692722</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3405219275481347</v>
+        <v>0.8940387073253897</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1679.171208983657</v>
+        <v>496.0267828802462</v>
       </c>
       <c r="C6" t="n">
-        <v>8.853024647622108e-10</v>
+        <v>0.3483282836910423</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.785339239894712</v>
+        <v>689.6274608512969</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5928086242397401</v>
+        <v>0.1439445177241365</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-444.3896964575188</v>
+        <v>356.082363568504</v>
       </c>
       <c r="C8" t="n">
-        <v>1.495499499738234e-06</v>
+        <v>0.254476857620492</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>777.2957195611036</v>
+        <v>-104.4305024109744</v>
       </c>
       <c r="C9" t="n">
-        <v>9.407951691980246e-22</v>
+        <v>0.4180388874135236</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1019619045290361</v>
+        <v>-1654.166717915535</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07251222809770269</v>
+        <v>1.663783965547504e-09</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-8.5663535695798e-06</v>
+        <v>7.691131186495982</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7213132574352079</v>
+        <v>0.5454286781296257</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-15.64290359491772</v>
+        <v>-414.5478786669606</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2966453739160945</v>
+        <v>9.95018576888768e-06</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-8.312472656975068</v>
+        <v>768.7462296960941</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5807591798392753</v>
+        <v>4.045198032200685e-21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3264.438132422921</v>
+        <v>0.09617070257709052</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1219039088159581</v>
+        <v>0.09145581417573674</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-6713.40638422446</v>
+        <v>-4.423182544406418e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0004718287684443202</v>
+        <v>0.8545458320955388</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>IntersecDensity_res</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-18.3180358396318</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2245961640150587</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-9.368202291494324</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.5341451269809085</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-3589.912486351969</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.09065834520834523</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-6379.135909667646</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.0009872448234186087</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>-38.02030109243424</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.9894165385810936</v>
+      <c r="B20" t="n">
+        <v>-59.03490432871536</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9836530691378742</v>
       </c>
     </row>
   </sheetData>
@@ -1127,7 +1283,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1159,192 +1315,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13214.81636286243</v>
+        <v>11127.29480584143</v>
       </c>
       <c r="C2" t="n">
-        <v>3.716855497206852e-07</v>
+        <v>1.62632729066592e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-21.09210037404648</v>
+        <v>-670.6391693651756</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9508280059482381</v>
+        <v>0.5068386958157829</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.20205287426006</v>
+        <v>-23.73947525134474</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9584874912515369</v>
+        <v>0.9496157626695652</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-68.44637837920331</v>
+        <v>-41.19690716494222</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5944103774745833</v>
+        <v>0.904582029211589</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1548.136855769964</v>
+        <v>706.4403397653177</v>
       </c>
       <c r="C6" t="n">
-        <v>1.867852461868582e-08</v>
+        <v>0.1959286810612921</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.523145479820599</v>
+        <v>161.0225055358231</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6649028161996674</v>
+        <v>0.7333907102429091</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-375.705318199687</v>
+        <v>638.392328468728</v>
       </c>
       <c r="C8" t="n">
-        <v>5.327182483665493e-05</v>
+        <v>0.04217053284883603</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>809.4932109542676</v>
+        <v>-60.91474951494688</v>
       </c>
       <c r="C9" t="n">
-        <v>1.011003710622632e-23</v>
+        <v>0.6367381459356766</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.09054337718822074</v>
+        <v>-1538.767682685301</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1147702871106723</v>
+        <v>2.408903603626652e-08</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.12169990053856e-05</v>
+        <v>-3.409514472754322</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6315764110588165</v>
+        <v>0.7897511327938329</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-14.43548996283053</v>
+        <v>-352.4880785543702</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3353925729068744</v>
+        <v>0.0001998084106729679</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-15.40236575347479</v>
+        <v>813.1640582649508</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3137257893482888</v>
+        <v>1.145332177933234e-23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1835.883723185776</v>
+        <v>0.08292039763811269</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3909412403463206</v>
+        <v>0.14999963575384</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-6853.446959914633</v>
+        <v>-7.083142875754923e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0003742233526645857</v>
+        <v>0.7636151440030048</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>IntersecDensity_res</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-16.18609855528915</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2826624916363131</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-15.50595187531628</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3109314777440942</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-2213.323195945014</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.3035130524144564</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-6372.641184613439</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.001031291597550218</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>1185.398098222433</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.6804529694093098</v>
+      <c r="B20" t="n">
+        <v>1521.897934098144</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.5987946537107125</v>
       </c>
     </row>
   </sheetData>
@@ -1358,7 +1566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1390,192 +1598,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15534.00367424062</v>
+        <v>12953.87311382293</v>
       </c>
       <c r="C2" t="n">
-        <v>2.444823708909066e-09</v>
+        <v>5.227625870250977e-07</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-359.7334155573743</v>
+        <v>-877.4947609002107</v>
       </c>
       <c r="C3" t="n">
-        <v>0.297433358913709</v>
+        <v>0.3919482315505675</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-393.0175901806799</v>
+        <v>366.0134946102662</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2874578355049398</v>
+        <v>0.3305130723409792</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-97.20655465418244</v>
+        <v>14.32999652664452</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4508733138221021</v>
+        <v>0.9670150445099339</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1632.107937466568</v>
+        <v>573.6340430997295</v>
       </c>
       <c r="C6" t="n">
-        <v>4.681868904897734e-09</v>
+        <v>0.2863996651438598</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.913248636913671</v>
+        <v>146.1944483289057</v>
       </c>
       <c r="C7" t="n">
-        <v>0.880985922739152</v>
+        <v>0.7640706688383909</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-399.491043170475</v>
+        <v>614.7812298176545</v>
       </c>
       <c r="C8" t="n">
-        <v>1.855484426980094e-05</v>
+        <v>0.05326828121270379</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>729.7272075851233</v>
+        <v>-90.71471081075096</v>
       </c>
       <c r="C9" t="n">
-        <v>2.830260560663993e-19</v>
+        <v>0.4831362813192818</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.07126099610638251</v>
+        <v>-1631.388117129312</v>
       </c>
       <c r="C10" t="n">
-        <v>0.215883842376783</v>
+        <v>5.17560714477164e-09</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-4.953738121785727e-06</v>
+        <v>4.210577851034487</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8345254609670845</v>
+        <v>0.7429759590547913</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-25.12169546440677</v>
+        <v>-379.0263032218973</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09394003214957569</v>
+        <v>6.631924771122e-05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-22.17334354942553</v>
+        <v>734.8744706602488</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1468043537315911</v>
+        <v>2.619090082611204e-19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3190.289053143269</v>
+        <v>0.06192572741268224</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1428125299445207</v>
+        <v>0.2840503117983125</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-6589.956495129978</v>
+        <v>-2.254950253419005e-07</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0007476528499656639</v>
+        <v>0.9924653346199604</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>IntersecDensity_res</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-26.63967059531403</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0773103559175263</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-22.09319571619585</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1484248261714197</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-3614.345667348286</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.09864985307331471</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-6080.035020734735</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.002049035931293605</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>1234.54254164007</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.6746305629752161</v>
+      <c r="B20" t="n">
+        <v>1568.229233076225</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.5955999969722315</v>
       </c>
     </row>
   </sheetData>
@@ -1589,7 +1849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1621,192 +1881,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15088.35562453749</v>
+        <v>12862.00621177826</v>
       </c>
       <c r="C2" t="n">
-        <v>3.814812522749387e-09</v>
+        <v>4.172155853910863e-07</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-179.3493055126713</v>
+        <v>-912.7651802394735</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6005091597027234</v>
+        <v>0.3436735450778374</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-159.3001505028262</v>
+        <v>108.0846938840252</v>
       </c>
       <c r="C4" t="n">
-        <v>0.661379191019369</v>
+        <v>0.7707324738559914</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-88.50904660506973</v>
+        <v>-65.00486085705518</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4871604104883421</v>
+        <v>0.8505293530936879</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1797.382374401847</v>
+        <v>222.6925327142987</v>
       </c>
       <c r="C6" t="n">
-        <v>7.421636235179066e-11</v>
+        <v>0.6815859184150466</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.322667354118459</v>
+        <v>253.0998252685491</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9796863375047218</v>
+        <v>0.5863399380629466</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-446.0341821235484</v>
+        <v>342.9821230979043</v>
       </c>
       <c r="C8" t="n">
-        <v>1.659786644672771e-06</v>
+        <v>0.2767580327953523</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>848.6218747620194</v>
+        <v>-78.91794460636324</v>
       </c>
       <c r="C9" t="n">
-        <v>1.898895854356808e-25</v>
+        <v>0.5372034974135691</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1144653348056466</v>
+        <v>-1780.640869115029</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04681533452252361</v>
+        <v>1.211906061886551e-10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.170298152243693e-06</v>
+        <v>1.334754585716601</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9256460905461489</v>
+        <v>0.9163983198234613</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-29.89014352248457</v>
+        <v>-433.4740900882682</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04420030506635398</v>
+        <v>4.500689425403034e-06</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-23.9716735797459</v>
+        <v>849.5223527289932</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1102034499590424</v>
+        <v>3.621982129776398e-25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3696.709361166511</v>
+        <v>0.1088921565679967</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08549699236022656</v>
+        <v>0.05942317649959554</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-5821.699188706059</v>
+        <v>5.454891597359318e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.002885951682545536</v>
+        <v>0.8159537139809926</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>IntersecDensity_res</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-30.8943949772278</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.03866845492868452</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-24.00634707202443</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1099902922904413</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-3937.887132070405</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0686239151871082</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-5527.340877473264</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.005011517044118333</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>-507.8660807429724</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.861555132809653</v>
+      <c r="B20" t="n">
+        <v>-414.2360447351216</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.8875203634077883</v>
       </c>
     </row>
   </sheetData>
@@ -1820,7 +2132,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1852,192 +2164,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15143.12242992946</v>
+        <v>12970.24509233926</v>
       </c>
       <c r="C2" t="n">
-        <v>4.128947200603713e-09</v>
+        <v>4.041064206027353e-07</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-317.3608175456213</v>
+        <v>-1414.06689830348</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3594282554236714</v>
+        <v>0.1505264593154174</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-330.816668400657</v>
+        <v>223.1556145287148</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3717394724384717</v>
+        <v>0.5540290194908133</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-146.4311758038386</v>
+        <v>-74.9835749165801</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2553578062775655</v>
+        <v>0.8290467720842425</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1546.247534808731</v>
+        <v>153.7663602650518</v>
       </c>
       <c r="C6" t="n">
-        <v>2.247846951675864e-08</v>
+        <v>0.7765515119418005</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.51880873455982</v>
+        <v>772.6915829543949</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5544042221149315</v>
+        <v>0.1078742693747564</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-371.70070532663</v>
+        <v>523.146401157131</v>
       </c>
       <c r="C8" t="n">
-        <v>7.093918575471537e-05</v>
+        <v>0.09732984176987589</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>741.0150574015516</v>
+        <v>-132.5591490642819</v>
       </c>
       <c r="C9" t="n">
-        <v>8.069350188706726e-20</v>
+        <v>0.30418338760338</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.05997553256932597</v>
+        <v>-1507.122166841618</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2941706097978063</v>
+        <v>5.231122139601377e-08</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.45777047893102e-07</v>
+        <v>-6.681799113523184</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9683397082204751</v>
+        <v>0.6002302695281494</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-22.21772885465363</v>
+        <v>-343.7891739250461</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1380193868693297</v>
+        <v>0.0002918310380385795</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-19.61355064392484</v>
+        <v>737.5391399912751</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1927303607426932</v>
+        <v>2.210986854979858e-19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4225.014943990814</v>
+        <v>0.05274107497104034</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04852868639730452</v>
+        <v>0.3568015870124553</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-6424.500252837506</v>
+        <v>6.694727722069535e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001114566128041987</v>
+        <v>0.7798014762127168</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>IntersecDensity_res</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-24.1254791950611</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1091427088332793</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-20.02327165308269</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1836750586690909</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-4702.699003307609</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.02899530864041981</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-6007.602133272412</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.002421272894502956</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>2438.90346190184</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.4055508915084639</v>
+      <c r="B20" t="n">
+        <v>2365.968782186214</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4218014930055902</v>
       </c>
     </row>
   </sheetData>
@@ -2051,7 +2415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2083,192 +2447,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15404.47170854902</v>
+        <v>13419.72952659294</v>
       </c>
       <c r="C2" t="n">
-        <v>5.069111938054369e-09</v>
+        <v>2.812367137129766e-07</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-311.5828529286151</v>
+        <v>-921.7011159007981</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3723229738774081</v>
+        <v>0.378766823778744</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-108.6400863387226</v>
+        <v>65.14948619727693</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7704694093587219</v>
+        <v>0.8634536920076097</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-133.6951344126564</v>
+        <v>-256.9935819269355</v>
       </c>
       <c r="C5" t="n">
-        <v>0.309468435943858</v>
+        <v>0.4674739688402595</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1634.544845577873</v>
+        <v>451.3780395717528</v>
       </c>
       <c r="C6" t="n">
-        <v>7.259543146442223e-09</v>
+        <v>0.4079458000901321</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.904861095560552</v>
+        <v>551.4265467928656</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8239768622394246</v>
+        <v>0.2561860383121268</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-463.5664196573799</v>
+        <v>411.2581599219762</v>
       </c>
       <c r="C8" t="n">
-        <v>9.027440263354493e-07</v>
+        <v>0.2026564295683806</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>790.7879233509702</v>
+        <v>-121.7779877622808</v>
       </c>
       <c r="C9" t="n">
-        <v>2.298071237652127e-21</v>
+        <v>0.3561148225132257</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.09013962819305228</v>
+        <v>-1611.123737098641</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1252245242826846</v>
+        <v>1.271400722627597e-08</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.27160627876693e-06</v>
+        <v>-2.02890465989184</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9588692572482228</v>
+        <v>0.8769090717292058</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-22.61819907998355</v>
+        <v>-435.8513405013542</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1346319978160821</v>
+        <v>5.80945616524616e-06</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-21.33197352578988</v>
+        <v>785.6691116635004</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1656926581660219</v>
+        <v>8.426228430423342e-21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4158.877505048775</v>
+        <v>0.08300571780216151</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05914867602324015</v>
+        <v>0.1590820413947767</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-7018.488551213845</v>
+        <v>3.240331468997871e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0004471670249081249</v>
+        <v>0.896182519156185</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>IntersecDensity_res</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-24.89839354826941</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1017299939299639</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-22.00002075741856</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1531157244684574</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-4434.655975737609</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.04516267530182526</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-6610.761469095926</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.0010380187573693</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>1548.105043832677</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.6074365041565296</v>
+      <c r="B20" t="n">
+        <v>1549.58247806541</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6099132612756656</v>
       </c>
     </row>
   </sheetData>
@@ -2282,7 +2698,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2314,192 +2730,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11584.20147062333</v>
+        <v>9120.932366136461</v>
       </c>
       <c r="C2" t="n">
-        <v>6.494413462856286e-06</v>
+        <v>0.0003486019196437452</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-344.7654445435874</v>
+        <v>-683.2391572194784</v>
       </c>
       <c r="C3" t="n">
-        <v>0.310380173240354</v>
+        <v>0.5025088685891894</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-330.5727673517993</v>
+        <v>308.0633277827069</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3658471627243087</v>
+        <v>0.4075592263578661</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-119.5799685235182</v>
+        <v>-35.17112005939904</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3487111491563339</v>
+        <v>0.9182898970982869</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1629.09907392681</v>
+        <v>198.4360702465673</v>
       </c>
       <c r="C6" t="n">
-        <v>2.763503507899233e-09</v>
+        <v>0.7070186266222811</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.866126712177499</v>
+        <v>779.4413308983608</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7575269649104426</v>
+        <v>0.09407468575154171</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-373.9332256971681</v>
+        <v>647.4366633745536</v>
       </c>
       <c r="C8" t="n">
-        <v>4.451780412788215e-05</v>
+        <v>0.0394877787814097</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>780.526016590178</v>
+        <v>-104.0436332609131</v>
       </c>
       <c r="C9" t="n">
-        <v>1.135987081061133e-22</v>
+        <v>0.4160067085086008</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.08030740285364268</v>
+        <v>-1594.073003318183</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1529579239245949</v>
+        <v>6.228531561435858e-09</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.358980023061625e-06</v>
+        <v>5.09208941236974</v>
       </c>
       <c r="C11" t="n">
-        <v>0.716526272648601</v>
+        <v>0.685143571881536</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-8.237478547613147</v>
+        <v>-344.9894440189878</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5780703641704894</v>
+        <v>0.000203853674935225</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.4027868557088388</v>
+        <v>779.2933300348531</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9788866964001973</v>
+        <v>2.672064208295573e-22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3571.652215029767</v>
+        <v>0.07197288708235572</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09427743884918879</v>
+        <v>0.2010599873115503</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-5736.889077964642</v>
+        <v>1.42815553195831e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.002959560396638322</v>
+        <v>0.5374469301239833</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>IntersecDensity_res</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-10.15638611087413</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.4947846843638209</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.5316356765802288</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9721420141822367</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-4140.025710266405</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.05390308967946585</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-5260.614262442188</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.006746007455561265</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>-1977.862540353661</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.4895730972762767</v>
+      <c r="B20" t="n">
+        <v>-1941.262810354683</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.5003888906448128</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Wien.xlsx
+++ b/outputs/ML_Results/dist_commute/Wien.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ36027897" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ36326735" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ36629860" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ36915427" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ37198380" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ37475921" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ37750889" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ38025746" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ38303048" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ27378595" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ27608306" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ27846048" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ28084864" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ28317685" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ28551723" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ28784775" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ29008186" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ29241180" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13555.44190447126</v>
+        <v>13496.54834403703</v>
       </c>
       <c r="C2" t="n">
-        <v>1.418793156274174e-07</v>
+        <v>1.123578059669432e-07</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1509.445913128324</v>
+        <v>-1511.287050802757</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1246886310418629</v>
+        <v>0.1241382381245672</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-16.77670568176245</v>
+        <v>-16.52937937158589</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9642564649645843</v>
+        <v>0.9647770045614483</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-382.1831935716733</v>
+        <v>-379.4478559044503</v>
       </c>
       <c r="C5" t="n">
-        <v>0.273349870161887</v>
+        <v>0.27603484699979</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.186425895658545</v>
+        <v>-3.72942563790204</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9952086515621998</v>
+        <v>0.9943911248212144</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.852720834962383</v>
+        <v>-2.033787921414842</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9901066343687865</v>
+        <v>0.9965562520680518</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>447.0728913545662</v>
+        <v>443.9490360660392</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1601180524192385</v>
+        <v>0.1620496533924627</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-164.2743580820305</v>
+        <v>-164.3955985484689</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2057544497045693</v>
+        <v>0.2053375767290399</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1595.774758980898</v>
+        <v>-1595.356449474957</v>
       </c>
       <c r="C10" t="n">
-        <v>9.148337785310219e-09</v>
+        <v>9.162719515768685e-09</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.261487426418942</v>
+        <v>3.291009285735278</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7973075426448593</v>
+        <v>0.7954559725338217</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-405.0414845185491</v>
+        <v>-405.426168956022</v>
       </c>
       <c r="C12" t="n">
-        <v>1.881075203135512e-05</v>
+        <v>1.827868404102009e-05</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>743.6286868438661</v>
+        <v>743.6390410718428</v>
       </c>
       <c r="C13" t="n">
-        <v>1.480137505004098e-19</v>
+        <v>1.458707281551078e-19</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.07498663951167095</v>
+        <v>0.07493561798684358</v>
       </c>
       <c r="C14" t="n">
-        <v>0.195555038193901</v>
+        <v>0.195778771074086</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.198225976528391e-05</v>
+        <v>1.423451050249907e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6251371926639135</v>
+        <v>0.4571054650453233</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-32.37897003843437</v>
+        <v>-32.24957317182236</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03142803213702586</v>
+        <v>0.03178972403052836</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-20.42998274459477</v>
+        <v>-19.95105913990317</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1777867668406651</v>
+        <v>0.1777399905444848</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-4568.579164599862</v>
+        <v>-4659.564331250396</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03631691156020431</v>
+        <v>0.02595617501753116</v>
       </c>
     </row>
     <row r="19">
@@ -687,23 +687,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-5621.638021237317</v>
+        <v>-5526.601354742796</v>
       </c>
       <c r="C19" t="n">
-        <v>0.004445937306827749</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>430.8292140419089</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.8831756031706297</v>
+        <v>0.003075423997346653</v>
       </c>
     </row>
   </sheetData>
@@ -717,7 +704,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -749,10 +736,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13273.81924980565</v>
+        <v>12977.75401668638</v>
       </c>
       <c r="C2" t="n">
-        <v>1.765935053571077e-07</v>
+        <v>2.344784939941401e-07</v>
       </c>
     </row>
     <row r="3">
@@ -762,10 +749,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-689.3528239708457</v>
+        <v>-688.8459369622615</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4926869988690564</v>
+        <v>0.4929736342328557</v>
       </c>
     </row>
     <row r="4">
@@ -775,10 +762,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-228.8934234326859</v>
+        <v>-233.8154727181852</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5397955658744562</v>
+        <v>0.5310210297392508</v>
       </c>
     </row>
     <row r="5">
@@ -788,10 +775,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-350.142072622354</v>
+        <v>-340.1899336024168</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3120865023808761</v>
+        <v>0.3256463734807041</v>
       </c>
     </row>
     <row r="6">
@@ -801,10 +788,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>139.75595358904</v>
+        <v>137.8387471759175</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7910084310702272</v>
+        <v>0.7937932513976457</v>
       </c>
     </row>
     <row r="7">
@@ -814,10 +801,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>408.1010128730385</v>
+        <v>435.102642035866</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3849893886394058</v>
+        <v>0.3528805759603679</v>
       </c>
     </row>
     <row r="8">
@@ -827,10 +814,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>525.1273214851644</v>
+        <v>517.4577505814977</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09599786783435674</v>
+        <v>0.1007441934843965</v>
       </c>
     </row>
     <row r="9">
@@ -840,10 +827,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-127.2268461559661</v>
+        <v>-129.5006013835561</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3205946048213959</v>
+        <v>0.3118528632568307</v>
       </c>
     </row>
     <row r="10">
@@ -853,10 +840,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1627.504143951454</v>
+        <v>-1628.872659297324</v>
       </c>
       <c r="C10" t="n">
-        <v>3.567686981287683e-09</v>
+        <v>3.450676423089297e-09</v>
       </c>
     </row>
     <row r="11">
@@ -866,10 +853,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-4.244521982109296</v>
+        <v>-3.930883918335116</v>
       </c>
       <c r="C11" t="n">
-        <v>0.737909221079899</v>
+        <v>0.7564932529986232</v>
       </c>
     </row>
     <row r="12">
@@ -879,10 +866,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-433.8572015518967</v>
+        <v>-434.2116917678879</v>
       </c>
       <c r="C12" t="n">
-        <v>3.640506367130303e-06</v>
+        <v>3.567926618284258e-06</v>
       </c>
     </row>
     <row r="13">
@@ -892,10 +879,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>782.0620864579307</v>
+        <v>780.9162327952619</v>
       </c>
       <c r="C13" t="n">
-        <v>3.004076576463383e-22</v>
+        <v>3.363388313484935e-22</v>
       </c>
     </row>
     <row r="14">
@@ -905,10 +892,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.05031162978784475</v>
+        <v>0.04949653398926152</v>
       </c>
       <c r="C14" t="n">
-        <v>0.370384037151783</v>
+        <v>0.3780616492423855</v>
       </c>
     </row>
     <row r="15">
@@ -918,10 +905,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.852257526055597e-06</v>
+        <v>1.607803302097866e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.838478595300137</v>
+        <v>0.3847337331061863</v>
       </c>
     </row>
     <row r="16">
@@ -931,10 +918,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-25.8300994066558</v>
+        <v>-25.21123512745823</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0813077525853408</v>
+        <v>0.08834795183464168</v>
       </c>
     </row>
     <row r="17">
@@ -944,10 +931,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-21.56261233473853</v>
+        <v>-19.16974126508942</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1492168219670688</v>
+        <v>0.1892875253903669</v>
       </c>
     </row>
     <row r="18">
@@ -957,10 +944,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3634.723012583142</v>
+        <v>-4075.599041811361</v>
       </c>
       <c r="C18" t="n">
-        <v>0.09149019942977701</v>
+        <v>0.04916755201631856</v>
       </c>
     </row>
     <row r="19">
@@ -970,23 +957,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-5547.533387542877</v>
+        <v>-5041.389863539771</v>
       </c>
       <c r="C19" t="n">
-        <v>0.00448667709000096</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2176.830806084886</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.4537265057791767</v>
+        <v>0.005903469757338978</v>
       </c>
     </row>
   </sheetData>
@@ -1000,7 +974,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1032,10 +1006,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10912.00115423993</v>
+        <v>10920.40576426768</v>
       </c>
       <c r="C2" t="n">
-        <v>1.909976197756914e-05</v>
+        <v>1.454246088758522e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1045,10 +1019,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-928.7167953463359</v>
+        <v>-928.7622522039036</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3412287266558685</v>
+        <v>0.341123977874722</v>
       </c>
     </row>
     <row r="4">
@@ -1058,10 +1032,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>248.0321905449479</v>
+        <v>247.9704279494834</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5009504823751382</v>
+        <v>0.5009719474919079</v>
       </c>
     </row>
     <row r="5">
@@ -1071,10 +1045,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-45.45534511692722</v>
+        <v>-45.86065083707854</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8940387073253897</v>
+        <v>0.8929029824766415</v>
       </c>
     </row>
     <row r="6">
@@ -1084,10 +1058,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>496.0267828802462</v>
+        <v>496.2480158017227</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3483282836910423</v>
+        <v>0.3479331359315482</v>
       </c>
     </row>
     <row r="7">
@@ -1097,10 +1071,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>689.6274608512969</v>
+        <v>689.0939541440275</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1439445177241365</v>
+        <v>0.1435774588718433</v>
       </c>
     </row>
     <row r="8">
@@ -1110,10 +1084,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>356.082363568504</v>
+        <v>356.486466947428</v>
       </c>
       <c r="C8" t="n">
-        <v>0.254476857620492</v>
+        <v>0.2529123892091293</v>
       </c>
     </row>
     <row r="9">
@@ -1123,10 +1097,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-104.4305024109744</v>
+        <v>-104.4148427407195</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4180388874135236</v>
+        <v>0.4180235003278919</v>
       </c>
     </row>
     <row r="10">
@@ -1136,10 +1110,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1654.166717915535</v>
+        <v>-1654.120974020307</v>
       </c>
       <c r="C10" t="n">
-        <v>1.663783965547504e-09</v>
+        <v>1.653205797326014e-09</v>
       </c>
     </row>
     <row r="11">
@@ -1149,10 +1123,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.691131186495982</v>
+        <v>7.6836419546513</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5454286781296257</v>
+        <v>0.545587668563233</v>
       </c>
     </row>
     <row r="12">
@@ -1162,10 +1136,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-414.5478786669606</v>
+        <v>-414.5286488012781</v>
       </c>
       <c r="C12" t="n">
-        <v>9.95018576888768e-06</v>
+        <v>9.915824844697296e-06</v>
       </c>
     </row>
     <row r="13">
@@ -1175,10 +1149,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>768.7462296960941</v>
+        <v>768.7575853505275</v>
       </c>
       <c r="C13" t="n">
-        <v>4.045198032200685e-21</v>
+        <v>3.971963522366711e-21</v>
       </c>
     </row>
     <row r="14">
@@ -1188,10 +1162,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.09617070257709052</v>
+        <v>0.09618870704873331</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09145581417573674</v>
+        <v>0.09130307127494867</v>
       </c>
     </row>
     <row r="15">
@@ -1201,10 +1175,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4.423182544406418e-06</v>
+        <v>-4.731643491008712e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8545458320955388</v>
+        <v>0.8018228317835818</v>
       </c>
     </row>
     <row r="16">
@@ -1214,10 +1188,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-18.3180358396318</v>
+        <v>-18.33800221726953</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2245961640150587</v>
+        <v>0.2230466230970607</v>
       </c>
     </row>
     <row r="17">
@@ -1227,10 +1201,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-9.368202291494324</v>
+        <v>-9.434326762553734</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5341451269809085</v>
+        <v>0.5214857538702665</v>
       </c>
     </row>
     <row r="18">
@@ -1240,10 +1214,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3589.912486351969</v>
+        <v>-3578.168579481481</v>
       </c>
       <c r="C18" t="n">
-        <v>0.09065834520834523</v>
+        <v>0.07980620705042209</v>
       </c>
     </row>
     <row r="19">
@@ -1253,23 +1227,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-6379.135909667646</v>
+        <v>-6392.268641054239</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0009872448234186087</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-59.03490432871536</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.9836530691378742</v>
+        <v>0.0004676222046738013</v>
       </c>
     </row>
   </sheetData>
@@ -1283,7 +1244,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1315,10 +1276,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11127.29480584143</v>
+        <v>10904.87381287808</v>
       </c>
       <c r="C2" t="n">
-        <v>1.62632729066592e-05</v>
+        <v>1.841598580164607e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1328,10 +1289,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-670.6391693651756</v>
+        <v>-676.3938638464164</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5068386958157829</v>
+        <v>0.5031237442411499</v>
       </c>
     </row>
     <row r="4">
@@ -1341,10 +1302,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-23.73947525134474</v>
+        <v>-23.74719121318242</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9496157626695652</v>
+        <v>0.9495933836950009</v>
       </c>
     </row>
     <row r="5">
@@ -1354,10 +1315,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-41.19690716494222</v>
+        <v>-31.33205371740758</v>
       </c>
       <c r="C5" t="n">
-        <v>0.904582029211589</v>
+        <v>0.9272404833944294</v>
       </c>
     </row>
     <row r="6">
@@ -1367,10 +1328,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>706.4403397653177</v>
+        <v>707.2030027247222</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1959286810612921</v>
+        <v>0.1953914660339025</v>
       </c>
     </row>
     <row r="7">
@@ -1380,10 +1341,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>161.0225055358231</v>
+        <v>178.2466020632447</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7333907102429091</v>
+        <v>0.7054266454084054</v>
       </c>
     </row>
     <row r="8">
@@ -1393,10 +1354,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>638.392328468728</v>
+        <v>630.363055484331</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04217053284883603</v>
+        <v>0.04454703872651024</v>
       </c>
     </row>
     <row r="9">
@@ -1406,10 +1367,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-60.91474951494688</v>
+        <v>-61.51594589463274</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6367381459356766</v>
+        <v>0.6333614588691554</v>
       </c>
     </row>
     <row r="10">
@@ -1419,10 +1380,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1538.767682685301</v>
+        <v>-1535.911540097741</v>
       </c>
       <c r="C10" t="n">
-        <v>2.408903603626652e-08</v>
+        <v>2.530268989364282e-08</v>
       </c>
     </row>
     <row r="11">
@@ -1432,10 +1393,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3.409514472754322</v>
+        <v>-3.204699113919255</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7897511327938329</v>
+        <v>0.8019973193056913</v>
       </c>
     </row>
     <row r="12">
@@ -1445,10 +1406,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-352.4880785543702</v>
+        <v>-352.7800313996678</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0001998084106729679</v>
+        <v>0.0001969929623481794</v>
       </c>
     </row>
     <row r="13">
@@ -1458,10 +1419,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>813.1640582649508</v>
+        <v>812.3503020922578</v>
       </c>
       <c r="C13" t="n">
-        <v>1.145332177933234e-23</v>
+        <v>1.227451253171528e-23</v>
       </c>
     </row>
     <row r="14">
@@ -1471,10 +1432,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.08292039763811269</v>
+        <v>0.08264771586276919</v>
       </c>
       <c r="C14" t="n">
-        <v>0.14999963575384</v>
+        <v>0.1512784507860203</v>
       </c>
     </row>
     <row r="15">
@@ -1484,10 +1445,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-7.083142875754923e-06</v>
+        <v>6.99562259470717e-07</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7636151440030048</v>
+        <v>0.9695493614236694</v>
       </c>
     </row>
     <row r="16">
@@ -1497,10 +1458,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-16.18609855528915</v>
+        <v>-15.68303563227297</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2826624916363131</v>
+        <v>0.2968556097678181</v>
       </c>
     </row>
     <row r="17">
@@ -1510,10 +1471,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-15.50595187531628</v>
+        <v>-13.72899750728977</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3109314777440942</v>
+        <v>0.357594081531705</v>
       </c>
     </row>
     <row r="18">
@@ -1523,10 +1484,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2213.323195945014</v>
+        <v>-2523.149788895895</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3035130524144564</v>
+        <v>0.2225946805409119</v>
       </c>
     </row>
     <row r="19">
@@ -1536,23 +1497,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-6372.641184613439</v>
+        <v>-6037.927413803171</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001031291597550218</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1521.897934098144</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.5987946537107125</v>
+        <v>0.0009953507936940997</v>
       </c>
     </row>
   </sheetData>
@@ -1566,7 +1514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1598,10 +1546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12953.87311382293</v>
+        <v>12735.345699294</v>
       </c>
       <c r="C2" t="n">
-        <v>5.227625870250977e-07</v>
+        <v>5.791869783368472e-07</v>
       </c>
     </row>
     <row r="3">
@@ -1611,10 +1559,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-877.4947609002107</v>
+        <v>-876.36059921946</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3919482315505675</v>
+        <v>0.3925031365320656</v>
       </c>
     </row>
     <row r="4">
@@ -1624,10 +1572,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>366.0134946102662</v>
+        <v>367.5077928097146</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3305130723409792</v>
+        <v>0.3284718345231327</v>
       </c>
     </row>
     <row r="5">
@@ -1637,10 +1585,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14.32999652664452</v>
+        <v>24.03928963047957</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9670150445099339</v>
+        <v>0.9446110106803174</v>
       </c>
     </row>
     <row r="6">
@@ -1650,10 +1598,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>573.6340430997295</v>
+        <v>575.3021303652841</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2863996651438598</v>
+        <v>0.284935492564274</v>
       </c>
     </row>
     <row r="7">
@@ -1663,10 +1611,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>146.1944483289057</v>
+        <v>163.9245713442753</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7640706688383909</v>
+        <v>0.7358353081740796</v>
       </c>
     </row>
     <row r="8">
@@ -1676,10 +1624,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>614.7812298176545</v>
+        <v>606.8496187200719</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05326828121270379</v>
+        <v>0.05611318142532427</v>
       </c>
     </row>
     <row r="9">
@@ -1689,10 +1637,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-90.71471081075096</v>
+        <v>-91.8916335511523</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4831362813192818</v>
+        <v>0.477360987578481</v>
       </c>
     </row>
     <row r="10">
@@ -1702,10 +1650,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1631.388117129312</v>
+        <v>-1632.810621884858</v>
       </c>
       <c r="C10" t="n">
-        <v>5.17560714477164e-09</v>
+        <v>4.991477620219717e-09</v>
       </c>
     </row>
     <row r="11">
@@ -1715,10 +1663,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.210577851034487</v>
+        <v>4.300938468613939</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7429759590547913</v>
+        <v>0.7376090286044938</v>
       </c>
     </row>
     <row r="12">
@@ -1728,10 +1676,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-379.0263032218973</v>
+        <v>-379.4052790702295</v>
       </c>
       <c r="C12" t="n">
-        <v>6.631924771122e-05</v>
+        <v>6.505435556364807e-05</v>
       </c>
     </row>
     <row r="13">
@@ -1741,10 +1689,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>734.8744706602488</v>
+        <v>733.9558309912582</v>
       </c>
       <c r="C13" t="n">
-        <v>2.619090082611204e-19</v>
+        <v>2.81660684033868e-19</v>
       </c>
     </row>
     <row r="14">
@@ -1754,10 +1702,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.06192572741268224</v>
+        <v>0.06117718128066235</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2840503117983125</v>
+        <v>0.2897094928765834</v>
       </c>
     </row>
     <row r="15">
@@ -1767,10 +1715,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2.254950253419005e-07</v>
+        <v>7.761367571789174e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9924653346199604</v>
+        <v>0.6754562245074902</v>
       </c>
     </row>
     <row r="16">
@@ -1780,10 +1728,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-26.63967059531403</v>
+        <v>-26.14080417360341</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0773103559175263</v>
+        <v>0.08238198335037192</v>
       </c>
     </row>
     <row r="17">
@@ -1793,10 +1741,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-22.09319571619585</v>
+        <v>-20.27745195872622</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1484248261714197</v>
+        <v>0.1734946111770428</v>
       </c>
     </row>
     <row r="18">
@@ -1806,10 +1754,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3614.345667348286</v>
+        <v>-3934.633771607707</v>
       </c>
       <c r="C18" t="n">
-        <v>0.09864985307331471</v>
+        <v>0.06142606414161373</v>
       </c>
     </row>
     <row r="19">
@@ -1819,23 +1767,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-6080.035020734735</v>
+        <v>-5718.983668482021</v>
       </c>
       <c r="C19" t="n">
-        <v>0.002049035931293605</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1568.229233076225</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.5955999969722315</v>
+        <v>0.00199976981197438</v>
       </c>
     </row>
   </sheetData>
@@ -1849,7 +1784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1881,10 +1816,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12862.00621177826</v>
+        <v>12920.87321981042</v>
       </c>
       <c r="C2" t="n">
-        <v>4.172155853910863e-07</v>
+        <v>2.544413603552208e-07</v>
       </c>
     </row>
     <row r="3">
@@ -1894,10 +1829,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-912.7651802394735</v>
+        <v>-912.2844462706428</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3436735450778374</v>
+        <v>0.3438464539362208</v>
       </c>
     </row>
     <row r="4">
@@ -1907,10 +1842,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>108.0846938840252</v>
+        <v>108.6011899283715</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7707324738559914</v>
+        <v>0.7696206294894494</v>
       </c>
     </row>
     <row r="5">
@@ -1920,10 +1855,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-65.00486085705518</v>
+        <v>-67.50253583728062</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8505293530936879</v>
+        <v>0.8446319136599694</v>
       </c>
     </row>
     <row r="6">
@@ -1933,10 +1868,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>222.6925327142987</v>
+        <v>222.4685772350688</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6815859184150466</v>
+        <v>0.6818385321018938</v>
       </c>
     </row>
     <row r="7">
@@ -1946,10 +1881,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>253.0998252685491</v>
+        <v>248.3661445175513</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5863399380629466</v>
+        <v>0.5923419118543423</v>
       </c>
     </row>
     <row r="8">
@@ -1959,10 +1894,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>342.9821230979043</v>
+        <v>345.1033705419821</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2767580327953523</v>
+        <v>0.2731777921724037</v>
       </c>
     </row>
     <row r="9">
@@ -1972,10 +1907,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-78.91794460636324</v>
+        <v>-78.74666236800617</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5372034974135691</v>
+        <v>0.5380029764521476</v>
       </c>
     </row>
     <row r="10">
@@ -1985,10 +1920,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1780.640869115029</v>
+        <v>-1780.734813512433</v>
       </c>
       <c r="C10" t="n">
-        <v>1.211906061886551e-10</v>
+        <v>1.200778286357897e-10</v>
       </c>
     </row>
     <row r="11">
@@ -1998,10 +1933,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.334754585716601</v>
+        <v>1.309844646960695</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9163983198234613</v>
+        <v>0.9179318689960301</v>
       </c>
     </row>
     <row r="12">
@@ -2011,10 +1946,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-433.4740900882682</v>
+        <v>-433.4351750685807</v>
       </c>
       <c r="C12" t="n">
-        <v>4.500689425403034e-06</v>
+        <v>4.493086813123971e-06</v>
       </c>
     </row>
     <row r="13">
@@ -2024,10 +1959,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>849.5223527289932</v>
+        <v>849.7336668127857</v>
       </c>
       <c r="C13" t="n">
-        <v>3.621982129776398e-25</v>
+        <v>3.403848837861711e-25</v>
       </c>
     </row>
     <row r="14">
@@ -2037,10 +1972,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1088921565679967</v>
+        <v>0.1090199220603201</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05942317649959554</v>
+        <v>0.05905324025846685</v>
       </c>
     </row>
     <row r="15">
@@ -2050,10 +1985,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.454891597359318e-06</v>
+        <v>3.356159811719045e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8159537139809926</v>
+        <v>0.8532026331217253</v>
       </c>
     </row>
     <row r="16">
@@ -2063,10 +1998,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-30.8943949772278</v>
+        <v>-31.03034433687023</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03866845492868452</v>
+        <v>0.03739382896577501</v>
       </c>
     </row>
     <row r="17">
@@ -2076,10 +2011,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-24.00634707202443</v>
+        <v>-24.48313236884271</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1099902922904413</v>
+        <v>0.09434708781498184</v>
       </c>
     </row>
     <row r="18">
@@ -2089,10 +2024,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3937.887132070405</v>
+        <v>-3852.214002839331</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0686239151871082</v>
+        <v>0.0634731534550107</v>
       </c>
     </row>
     <row r="19">
@@ -2102,23 +2037,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-5527.340877473264</v>
+        <v>-5623.563089246689</v>
       </c>
       <c r="C19" t="n">
-        <v>0.005011517044118333</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-414.2360447351216</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.8875203634077883</v>
+        <v>0.002343943893049453</v>
       </c>
     </row>
   </sheetData>
@@ -2132,7 +2054,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2164,10 +2086,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12970.24509233926</v>
+        <v>12653.18686771569</v>
       </c>
       <c r="C2" t="n">
-        <v>4.041064206027353e-07</v>
+        <v>5.621221701492875e-07</v>
       </c>
     </row>
     <row r="3">
@@ -2177,10 +2099,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1414.06689830348</v>
+        <v>-1419.305983400323</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1505264593154174</v>
+        <v>0.1489879131125969</v>
       </c>
     </row>
     <row r="4">
@@ -2190,10 +2112,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>223.1556145287148</v>
+        <v>220.5475690101547</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5540290194908133</v>
+        <v>0.5586322434989928</v>
       </c>
     </row>
     <row r="5">
@@ -2203,10 +2125,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-74.9835749165801</v>
+        <v>-61.7155268158516</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8290467720842425</v>
+        <v>0.8587784779000907</v>
       </c>
     </row>
     <row r="6">
@@ -2216,10 +2138,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>153.7663602650518</v>
+        <v>136.9558467277607</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7765515119418005</v>
+        <v>0.8002746827393301</v>
       </c>
     </row>
     <row r="7">
@@ -2229,10 +2151,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>772.6915829543949</v>
+        <v>795.5018542441228</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1078742693747564</v>
+        <v>0.09726538645144173</v>
       </c>
     </row>
     <row r="8">
@@ -2242,10 +2164,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>523.146401157131</v>
+        <v>510.8979907885313</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09732984176987589</v>
+        <v>0.1049903586945272</v>
       </c>
     </row>
     <row r="9">
@@ -2255,10 +2177,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-132.5591490642819</v>
+        <v>-134.5502640394154</v>
       </c>
       <c r="C9" t="n">
-        <v>0.30418338760338</v>
+        <v>0.2968610851324401</v>
       </c>
     </row>
     <row r="10">
@@ -2268,10 +2190,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1507.122166841618</v>
+        <v>-1506.95886334607</v>
       </c>
       <c r="C10" t="n">
-        <v>5.231122139601377e-08</v>
+        <v>5.238859567788716e-08</v>
       </c>
     </row>
     <row r="11">
@@ -2281,10 +2203,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-6.681799113523184</v>
+        <v>-6.60616312109698</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6002302695281494</v>
+        <v>0.6043313637134033</v>
       </c>
     </row>
     <row r="12">
@@ -2294,10 +2216,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-343.7891739250461</v>
+        <v>-344.0034548239114</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0002918310380385795</v>
+        <v>0.0002890439081910497</v>
       </c>
     </row>
     <row r="13">
@@ -2307,10 +2229,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>737.5391399912751</v>
+        <v>736.7894691600593</v>
       </c>
       <c r="C13" t="n">
-        <v>2.210986854979858e-19</v>
+        <v>2.376019315849277e-19</v>
       </c>
     </row>
     <row r="14">
@@ -2320,10 +2242,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.05274107497104034</v>
+        <v>0.05172591329211942</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3568015870124553</v>
+        <v>0.3659869404712693</v>
       </c>
     </row>
     <row r="15">
@@ -2333,10 +2255,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6.694727722069535e-06</v>
+        <v>1.880933272852063e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7798014762127168</v>
+        <v>0.3119230284367445</v>
       </c>
     </row>
     <row r="16">
@@ -2346,10 +2268,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-24.1254791950611</v>
+        <v>-23.32231854039312</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1091427088332793</v>
+        <v>0.1205996531816195</v>
       </c>
     </row>
     <row r="17">
@@ -2359,10 +2281,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-20.02327165308269</v>
+        <v>-17.42130501860975</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1836750586690909</v>
+        <v>0.2361811334915061</v>
       </c>
     </row>
     <row r="18">
@@ -2372,10 +2294,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-4702.699003307609</v>
+        <v>-5177.408523575783</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02899530864041981</v>
+        <v>0.01242541535096594</v>
       </c>
     </row>
     <row r="19">
@@ -2385,23 +2307,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-6007.602133272412</v>
+        <v>-5467.013676201735</v>
       </c>
       <c r="C19" t="n">
-        <v>0.002421272894502956</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2365.968782186214</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.4218014930055902</v>
+        <v>0.003332880567925396</v>
       </c>
     </row>
   </sheetData>
@@ -2415,7 +2324,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2447,10 +2356,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13419.72952659294</v>
+        <v>13211.00913520603</v>
       </c>
       <c r="C2" t="n">
-        <v>2.812367137129766e-07</v>
+        <v>3.058114850541569e-07</v>
       </c>
     </row>
     <row r="3">
@@ -2460,10 +2369,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-921.7011159007981</v>
+        <v>-920.3732056736571</v>
       </c>
       <c r="C3" t="n">
-        <v>0.378766823778744</v>
+        <v>0.3793941498612347</v>
       </c>
     </row>
     <row r="4">
@@ -2473,10 +2382,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>65.14948619727693</v>
+        <v>67.25678357526652</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8634536920076097</v>
+        <v>0.8590571708839025</v>
       </c>
     </row>
     <row r="5">
@@ -2486,10 +2395,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-256.9935819269355</v>
+        <v>-247.1808026782325</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4674739688402595</v>
+        <v>0.4839428437910175</v>
       </c>
     </row>
     <row r="6">
@@ -2499,10 +2408,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>451.3780395717528</v>
+        <v>448.1966644325339</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4079458000901321</v>
+        <v>0.4111699554532795</v>
       </c>
     </row>
     <row r="7">
@@ -2512,10 +2421,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>551.4265467928656</v>
+        <v>572.7554156856033</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2561860383121268</v>
+        <v>0.2364529453910465</v>
       </c>
     </row>
     <row r="8">
@@ -2525,10 +2434,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>411.2581599219762</v>
+        <v>401.6504291420151</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2026564295683806</v>
+        <v>0.2125664917285006</v>
       </c>
     </row>
     <row r="9">
@@ -2538,10 +2447,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-121.7779877622808</v>
+        <v>-122.847982539232</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3561148225132257</v>
+        <v>0.3517852983846331</v>
       </c>
     </row>
     <row r="10">
@@ -2551,10 +2460,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1611.123737098641</v>
+        <v>-1611.638799613428</v>
       </c>
       <c r="C10" t="n">
-        <v>1.271400722627597e-08</v>
+        <v>1.25259889000374e-08</v>
       </c>
     </row>
     <row r="11">
@@ -2564,10 +2473,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2.02890465989184</v>
+        <v>-1.952528173496937</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8769090717292058</v>
+        <v>0.8814857461282</v>
       </c>
     </row>
     <row r="12">
@@ -2577,10 +2486,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-435.8513405013542</v>
+        <v>-436.6526429673839</v>
       </c>
       <c r="C12" t="n">
-        <v>5.80945616524616e-06</v>
+        <v>5.554443595692762e-06</v>
       </c>
     </row>
     <row r="13">
@@ -2590,10 +2499,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>785.6691116635004</v>
+        <v>785.4842924242101</v>
       </c>
       <c r="C13" t="n">
-        <v>8.426228430423342e-21</v>
+        <v>8.500770336532429e-21</v>
       </c>
     </row>
     <row r="14">
@@ -2603,10 +2512,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.08300571780216151</v>
+        <v>0.08280084534196315</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1590820413947767</v>
+        <v>0.1600522883864988</v>
       </c>
     </row>
     <row r="15">
@@ -2616,10 +2525,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.240331468997871e-06</v>
+        <v>1.124814910072114e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.896182519156185</v>
+        <v>0.5588469940681609</v>
       </c>
     </row>
     <row r="16">
@@ -2629,10 +2538,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-24.89839354826941</v>
+        <v>-24.41509350630575</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1017299939299639</v>
+        <v>0.1078159918842119</v>
       </c>
     </row>
     <row r="17">
@@ -2642,10 +2551,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-22.00002075741856</v>
+        <v>-20.31902960776127</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1531157244684574</v>
+        <v>0.1767176400747352</v>
       </c>
     </row>
     <row r="18">
@@ -2655,10 +2564,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-4434.655975737609</v>
+        <v>-4743.417552157164</v>
       </c>
       <c r="C18" t="n">
-        <v>0.04516267530182526</v>
+        <v>0.02590738316242991</v>
       </c>
     </row>
     <row r="19">
@@ -2668,23 +2577,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-6610.761469095926</v>
+        <v>-6264.957467328332</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0010380187573693</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1549.58247806541</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.6099132612756656</v>
+        <v>0.0009620008321343956</v>
       </c>
     </row>
   </sheetData>
@@ -2698,7 +2594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2730,10 +2626,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9120.932366136461</v>
+        <v>9386.608014318708</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0003486019196437452</v>
+        <v>0.0001951163257491296</v>
       </c>
     </row>
     <row r="3">
@@ -2743,10 +2639,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-683.2391572194784</v>
+        <v>-691.791961619145</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5025088685891894</v>
+        <v>0.4971031653719925</v>
       </c>
     </row>
     <row r="4">
@@ -2756,10 +2652,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>308.0633277827069</v>
+        <v>308.3222732486395</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4075592263578661</v>
+        <v>0.4071225716003867</v>
       </c>
     </row>
     <row r="5">
@@ -2769,10 +2665,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-35.17112005939904</v>
+        <v>-49.82628931290751</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9182898970982869</v>
+        <v>0.8842048146558703</v>
       </c>
     </row>
     <row r="6">
@@ -2782,10 +2678,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>198.4360702465673</v>
+        <v>205.6851862884089</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7070186266222811</v>
+        <v>0.6967512449584289</v>
       </c>
     </row>
     <row r="7">
@@ -2795,10 +2691,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>779.4413308983608</v>
+        <v>755.3195754638671</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09407468575154171</v>
+        <v>0.1036400679559828</v>
       </c>
     </row>
     <row r="8">
@@ -2808,10 +2704,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>647.4366633745536</v>
+        <v>659.3272243803773</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0394877787814097</v>
+        <v>0.035697613090103</v>
       </c>
     </row>
     <row r="9">
@@ -2821,10 +2717,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-104.0436332609131</v>
+        <v>-102.7296151291646</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4160067085086008</v>
+        <v>0.4218225998546395</v>
       </c>
     </row>
     <row r="10">
@@ -2834,10 +2730,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1594.073003318183</v>
+        <v>-1594.729842930645</v>
       </c>
       <c r="C10" t="n">
-        <v>6.228531561435858e-09</v>
+        <v>6.119883453717086e-09</v>
       </c>
     </row>
     <row r="11">
@@ -2847,10 +2743,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.09208941236974</v>
+        <v>5.013310651237532</v>
       </c>
       <c r="C11" t="n">
-        <v>0.685143571881536</v>
+        <v>0.6897199378459979</v>
       </c>
     </row>
     <row r="12">
@@ -2860,10 +2756,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-344.9894440189878</v>
+        <v>-344.4060698385219</v>
       </c>
       <c r="C12" t="n">
-        <v>0.000203853674935225</v>
+        <v>0.0002085543318497956</v>
       </c>
     </row>
     <row r="13">
@@ -2873,10 +2769,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>779.2933300348531</v>
+        <v>780.3630673886446</v>
       </c>
       <c r="C13" t="n">
-        <v>2.672064208295573e-22</v>
+        <v>2.285314476970282e-22</v>
       </c>
     </row>
     <row r="14">
@@ -2886,10 +2782,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.07197288708235572</v>
+        <v>0.0727866502460487</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2010599873115503</v>
+        <v>0.1958714596361372</v>
       </c>
     </row>
     <row r="15">
@@ -2899,10 +2795,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.42815553195831e-05</v>
+        <v>4.502171780648979e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5374469301239833</v>
+        <v>0.8029869477410815</v>
       </c>
     </row>
     <row r="16">
@@ -2912,10 +2808,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-10.15638611087413</v>
+        <v>-10.75126971763994</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4947846843638209</v>
+        <v>0.4690382449135611</v>
       </c>
     </row>
     <row r="17">
@@ -2925,10 +2821,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.5316356765802288</v>
+        <v>-2.743615419315473</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9721420141822367</v>
+        <v>0.8535594021380587</v>
       </c>
     </row>
     <row r="18">
@@ -2938,10 +2834,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-4140.025710266405</v>
+        <v>-3742.424682831721</v>
       </c>
       <c r="C18" t="n">
-        <v>0.05390308967946585</v>
+        <v>0.06991173102066926</v>
       </c>
     </row>
     <row r="19">
@@ -2951,23 +2847,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-5260.614262442188</v>
+        <v>-5717.389853064949</v>
       </c>
       <c r="C19" t="n">
-        <v>0.006746007455561265</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-1941.262810354683</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.5003888906448128</v>
+        <v>0.001678665377136217</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Wien.xlsx
+++ b/outputs/ML_Results/dist_commute/Wien.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ27378595" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ27608306" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ27846048" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ28084864" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ28317685" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ28551723" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ28784775" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ29008186" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ29241180" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ27911542" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ28210844" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ28525950" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ28904057" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ29204330" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ29504158" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ29820117" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ30118976" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ30418947" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13496.54834403703</v>
+        <v>11528.69657993382</v>
       </c>
       <c r="C2" t="n">
-        <v>1.123578059669432e-07</v>
+        <v>1.871596091997657e-05</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1511.287050802757</v>
+        <v>-419.2906711671008</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1241382381245672</v>
+        <v>0.6805265470968016</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-16.52937937158589</v>
+        <v>586.8896303987297</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9647770045614483</v>
+        <v>0.1392867620380787</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-379.4478559044503</v>
+        <v>286.8561999378939</v>
       </c>
       <c r="C5" t="n">
-        <v>0.27603484699979</v>
+        <v>0.4345186190257855</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.72942563790204</v>
+        <v>339.2709476321059</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9943911248212144</v>
+        <v>0.5436694886812032</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.033787921414842</v>
+        <v>668.1937471239488</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9965562520680518</v>
+        <v>0.1800013147629845</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>443.9490360660392</v>
+        <v>505.0393674385231</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1620496533924627</v>
+        <v>0.1293955570941825</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-164.3955985484689</v>
+        <v>14.0848360754497</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2053375767290399</v>
+        <v>0.9173151362636185</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1595.356449474957</v>
+        <v>-2242.780898089849</v>
       </c>
       <c r="C10" t="n">
-        <v>9.162719515768685e-09</v>
+        <v>2.312305949838488e-14</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.291009285735278</v>
+        <v>2.409953282576522</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7954559725338217</v>
+        <v>0.8575321840454713</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-405.426168956022</v>
+        <v>-294.6169763232098</v>
       </c>
       <c r="C12" t="n">
-        <v>1.827868404102009e-05</v>
+        <v>0.002952397455309834</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>743.6390410718428</v>
+        <v>755.2473055240105</v>
       </c>
       <c r="C13" t="n">
-        <v>1.458707281551078e-19</v>
+        <v>6.95700094451576e-19</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.07493561798684358</v>
+        <v>0.1003767835175774</v>
       </c>
       <c r="C14" t="n">
-        <v>0.195778771074086</v>
+        <v>0.0969710945436172</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.423451050249907e-05</v>
+        <v>-5.165624622397809e-07</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4571054650453233</v>
+        <v>0.9787698496957168</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-32.24957317182236</v>
+        <v>-17.24605940732713</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03178972403052836</v>
+        <v>0.2780731101989299</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-19.95105913990317</v>
+        <v>-17.97221139374197</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1777399905444848</v>
+        <v>0.2520715642675693</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-4659.564331250396</v>
+        <v>285.9359759149986</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02595617501753116</v>
+        <v>0.8952941083345706</v>
       </c>
     </row>
     <row r="19">
@@ -687,10 +687,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-5526.601354742796</v>
+        <v>-6861.373704581373</v>
       </c>
       <c r="C19" t="n">
-        <v>0.003075423997346653</v>
+        <v>0.0004824784091994947</v>
       </c>
     </row>
   </sheetData>
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12977.75401668638</v>
+        <v>14644.45921587761</v>
       </c>
       <c r="C2" t="n">
-        <v>2.344784939941401e-07</v>
+        <v>3.776622851062801e-08</v>
       </c>
     </row>
     <row r="3">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-688.8459369622615</v>
+        <v>-264.7477979306295</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4929736342328557</v>
+        <v>0.8041659057341205</v>
       </c>
     </row>
     <row r="4">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-233.8154727181852</v>
+        <v>191.0634284452144</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5310210297392508</v>
+        <v>0.6228302574276509</v>
       </c>
     </row>
     <row r="5">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-340.1899336024168</v>
+        <v>-357.48562544023</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3256463734807041</v>
+        <v>0.323878035511255</v>
       </c>
     </row>
     <row r="6">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>137.8387471759175</v>
+        <v>326.9707132425829</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7937932513976457</v>
+        <v>0.5650603188367289</v>
       </c>
     </row>
     <row r="7">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>435.102642035866</v>
+        <v>678.1603552368986</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3528805759603679</v>
+        <v>0.1671540856716972</v>
       </c>
     </row>
     <row r="8">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>517.4577505814977</v>
+        <v>450.9107846303838</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1007441934843965</v>
+        <v>0.1739537639393963</v>
       </c>
     </row>
     <row r="9">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-129.5006013835561</v>
+        <v>-0.5157845893093054</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3118528632568307</v>
+        <v>0.9969383347786356</v>
       </c>
     </row>
     <row r="10">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1628.872659297324</v>
+        <v>-2056.419097429711</v>
       </c>
       <c r="C10" t="n">
-        <v>3.450676423089297e-09</v>
+        <v>1.52450539889883e-12</v>
       </c>
     </row>
     <row r="11">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3.930883918335116</v>
+        <v>-1.272634161145669</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7564932529986232</v>
+        <v>0.9244089191409741</v>
       </c>
     </row>
     <row r="12">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-434.2116917678879</v>
+        <v>-305.014855860554</v>
       </c>
       <c r="C12" t="n">
-        <v>3.567926618284258e-06</v>
+        <v>0.001957070039828908</v>
       </c>
     </row>
     <row r="13">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>780.9162327952619</v>
+        <v>722.825897779703</v>
       </c>
       <c r="C13" t="n">
-        <v>3.363388313484935e-22</v>
+        <v>9.139260393048416e-18</v>
       </c>
     </row>
     <row r="14">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.04949653398926152</v>
+        <v>0.09824264759193425</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3780616492423855</v>
+        <v>0.09701254865406125</v>
       </c>
     </row>
     <row r="15">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.607803302097866e-05</v>
+        <v>7.583106292549499e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3847337331061863</v>
+        <v>0.6892422734658226</v>
       </c>
     </row>
     <row r="16">
@@ -918,10 +918,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-25.21123512745823</v>
+        <v>-32.54836645351839</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08834795183464168</v>
+        <v>0.03908396201220427</v>
       </c>
     </row>
     <row r="17">
@@ -931,10 +931,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-19.16974126508942</v>
+        <v>-30.98698409284619</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1892875253903669</v>
+        <v>0.04603237857728842</v>
       </c>
     </row>
     <row r="18">
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-4075.599041811361</v>
+        <v>-1916.786328887803</v>
       </c>
       <c r="C18" t="n">
-        <v>0.04916755201631856</v>
+        <v>0.3724690351526685</v>
       </c>
     </row>
     <row r="19">
@@ -957,10 +957,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-5041.389863539771</v>
+        <v>-6689.00919755596</v>
       </c>
       <c r="C19" t="n">
-        <v>0.005903469757338978</v>
+        <v>0.0005692324656655952</v>
       </c>
     </row>
   </sheetData>
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10920.40576426768</v>
+        <v>12152.22467060801</v>
       </c>
       <c r="C2" t="n">
-        <v>1.454246088758522e-05</v>
+        <v>6.602319543120394e-06</v>
       </c>
     </row>
     <row r="3">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-928.7622522039036</v>
+        <v>-843.3096700789001</v>
       </c>
       <c r="C3" t="n">
-        <v>0.341123977874722</v>
+        <v>0.4468174587996747</v>
       </c>
     </row>
     <row r="4">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247.9704279494834</v>
+        <v>271.4813504390061</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5009719474919079</v>
+        <v>0.4933887994865388</v>
       </c>
     </row>
     <row r="5">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-45.86065083707854</v>
+        <v>-80.36643481005535</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8929029824766415</v>
+        <v>0.8254803246758793</v>
       </c>
     </row>
     <row r="6">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>496.2480158017227</v>
+        <v>440.8958464881528</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3479331359315482</v>
+        <v>0.4421616109541819</v>
       </c>
     </row>
     <row r="7">
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>689.0939541440275</v>
+        <v>131.1814334074501</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1435774588718433</v>
+        <v>0.7910220366759642</v>
       </c>
     </row>
     <row r="8">
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>356.486466947428</v>
+        <v>836.9060175636409</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2529123892091293</v>
+        <v>0.0127639215543954</v>
       </c>
     </row>
     <row r="9">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-104.4148427407195</v>
+        <v>-3.132617721126387</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4180235003278919</v>
+        <v>0.9817248428481034</v>
       </c>
     </row>
     <row r="10">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1654.120974020307</v>
+        <v>-1990.939068854148</v>
       </c>
       <c r="C10" t="n">
-        <v>1.653205797326014e-09</v>
+        <v>1.319391750585593e-11</v>
       </c>
     </row>
     <row r="11">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.6836419546513</v>
+        <v>-10.71427541645199</v>
       </c>
       <c r="C11" t="n">
-        <v>0.545587668563233</v>
+        <v>0.4310222223969528</v>
       </c>
     </row>
     <row r="12">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-414.5286488012781</v>
+        <v>-353.503794106658</v>
       </c>
       <c r="C12" t="n">
-        <v>9.915824844697296e-06</v>
+        <v>0.0004271530053842389</v>
       </c>
     </row>
     <row r="13">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>768.7575853505275</v>
+        <v>832.7307817345808</v>
       </c>
       <c r="C13" t="n">
-        <v>3.971963522366711e-21</v>
+        <v>1.926204189409185e-22</v>
       </c>
     </row>
     <row r="14">
@@ -1162,10 +1162,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.09618870704873331</v>
+        <v>0.07614140025521335</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09130307127494867</v>
+        <v>0.2176067329880547</v>
       </c>
     </row>
     <row r="15">
@@ -1175,10 +1175,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4.731643491008712e-06</v>
+        <v>9.414372835153472e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8018228317835818</v>
+        <v>0.6263362443116797</v>
       </c>
     </row>
     <row r="16">
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-18.33800221726953</v>
+        <v>-21.43625948325577</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2230466230970607</v>
+        <v>0.1767195536874019</v>
       </c>
     </row>
     <row r="17">
@@ -1201,10 +1201,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-9.434326762553734</v>
+        <v>-20.11140245205016</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5214857538702665</v>
+        <v>0.1999120405182805</v>
       </c>
     </row>
     <row r="18">
@@ -1214,10 +1214,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3578.168579481481</v>
+        <v>-2241.315611348953</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07980620705042209</v>
+        <v>0.2974823628737027</v>
       </c>
     </row>
     <row r="19">
@@ -1227,10 +1227,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-6392.268641054239</v>
+        <v>-4931.049454578909</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0004676222046738013</v>
+        <v>0.01312804835875287</v>
       </c>
     </row>
   </sheetData>
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10904.87381287808</v>
+        <v>9774.042944941182</v>
       </c>
       <c r="C2" t="n">
-        <v>1.841598580164607e-05</v>
+        <v>0.0002389726644727298</v>
       </c>
     </row>
     <row r="3">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-676.3938638464164</v>
+        <v>-1360.658298433067</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5031237442411499</v>
+        <v>0.1972259111917695</v>
       </c>
     </row>
     <row r="4">
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-23.74719121318242</v>
+        <v>610.6992035110417</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9495933836950009</v>
+        <v>0.113501395995</v>
       </c>
     </row>
     <row r="5">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-31.33205371740758</v>
+        <v>6.363809828041241</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9272404833944294</v>
+        <v>0.9858519992243945</v>
       </c>
     </row>
     <row r="6">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>707.2030027247222</v>
+        <v>559.5793173249593</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1953914660339025</v>
+        <v>0.3075639978607573</v>
       </c>
     </row>
     <row r="7">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>178.2466020632447</v>
+        <v>745.4697735534932</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7054266454084054</v>
+        <v>0.138218562108373</v>
       </c>
     </row>
     <row r="8">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>630.363055484331</v>
+        <v>747.5287496959636</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04454703872651024</v>
+        <v>0.02308134492874355</v>
       </c>
     </row>
     <row r="9">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-61.51594589463274</v>
+        <v>-108.419291085087</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6333614588691554</v>
+        <v>0.4142301768514393</v>
       </c>
     </row>
     <row r="10">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1535.911540097741</v>
+        <v>-1694.040480327836</v>
       </c>
       <c r="C10" t="n">
-        <v>2.530268989364282e-08</v>
+        <v>4.661792407470473e-09</v>
       </c>
     </row>
     <row r="11">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3.204699113919255</v>
+        <v>-3.70108513532267</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8019973193056913</v>
+        <v>0.7807845826254289</v>
       </c>
     </row>
     <row r="12">
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-352.7800313996678</v>
+        <v>-269.8030634830312</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0001969929623481794</v>
+        <v>0.005870340253872317</v>
       </c>
     </row>
     <row r="13">
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>812.3503020922578</v>
+        <v>801.3344188858449</v>
       </c>
       <c r="C13" t="n">
-        <v>1.227451253171528e-23</v>
+        <v>2.249088394485579e-21</v>
       </c>
     </row>
     <row r="14">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.08264771586276919</v>
+        <v>0.01741026628571279</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1512784507860203</v>
+        <v>0.7737807625966645</v>
       </c>
     </row>
     <row r="15">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6.99562259470717e-07</v>
+        <v>8.383975850285382e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9695493614236694</v>
+        <v>0.6635663319358427</v>
       </c>
     </row>
     <row r="16">
@@ -1458,10 +1458,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-15.68303563227297</v>
+        <v>-11.93965162795913</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2968556097678181</v>
+        <v>0.4467710604570552</v>
       </c>
     </row>
     <row r="17">
@@ -1471,10 +1471,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-13.72899750728977</v>
+        <v>-11.03997561048204</v>
       </c>
       <c r="C17" t="n">
-        <v>0.357594081531705</v>
+        <v>0.4752571862197917</v>
       </c>
     </row>
     <row r="18">
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2523.149788895895</v>
+        <v>-406.0546699234683</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2225946805409119</v>
+        <v>0.8502912489778418</v>
       </c>
     </row>
     <row r="19">
@@ -1497,10 +1497,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-6037.927413803171</v>
+        <v>-3504.728265838148</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0009953507936940997</v>
+        <v>0.06956579570238339</v>
       </c>
     </row>
   </sheetData>
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12735.345699294</v>
+        <v>10676.33277712258</v>
       </c>
       <c r="C2" t="n">
-        <v>5.791869783368472e-07</v>
+        <v>7.182850864646069e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-876.36059921946</v>
+        <v>-851.5164939852087</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3925031365320656</v>
+        <v>0.4165974225950533</v>
       </c>
     </row>
     <row r="4">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>367.5077928097146</v>
+        <v>58.41894841708006</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3284718345231327</v>
+        <v>0.8827447538890013</v>
       </c>
     </row>
     <row r="5">
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>24.03928963047957</v>
+        <v>-30.36104974135256</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9446110106803174</v>
+        <v>0.933864405159661</v>
       </c>
     </row>
     <row r="6">
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>575.3021303652841</v>
+        <v>423.8092966288515</v>
       </c>
       <c r="C6" t="n">
-        <v>0.284935492564274</v>
+        <v>0.4575364922721682</v>
       </c>
     </row>
     <row r="7">
@@ -1611,10 +1611,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>163.9245713442753</v>
+        <v>357.5424034202349</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7358353081740796</v>
+        <v>0.4723247140559131</v>
       </c>
     </row>
     <row r="8">
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>606.8496187200719</v>
+        <v>882.4348594978624</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05611318142532427</v>
+        <v>0.008179086909431614</v>
       </c>
     </row>
     <row r="9">
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-91.8916335511523</v>
+        <v>68.18793754794173</v>
       </c>
       <c r="C9" t="n">
-        <v>0.477360987578481</v>
+        <v>0.6107830652104362</v>
       </c>
     </row>
     <row r="10">
@@ -1650,10 +1650,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1632.810621884858</v>
+        <v>-1808.819356091209</v>
       </c>
       <c r="C10" t="n">
-        <v>4.991477620219717e-09</v>
+        <v>7.296349267325692e-10</v>
       </c>
     </row>
     <row r="11">
@@ -1663,10 +1663,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.300938468613939</v>
+        <v>-2.253178017471349</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7376090286044938</v>
+        <v>0.8673847754843498</v>
       </c>
     </row>
     <row r="12">
@@ -1676,10 +1676,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-379.4052790702295</v>
+        <v>-432.6456470518007</v>
       </c>
       <c r="C12" t="n">
-        <v>6.505435556364807e-05</v>
+        <v>1.10264759811938e-05</v>
       </c>
     </row>
     <row r="13">
@@ -1689,10 +1689,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>733.9558309912582</v>
+        <v>811.575019353854</v>
       </c>
       <c r="C13" t="n">
-        <v>2.81660684033868e-19</v>
+        <v>1.140989157869262e-21</v>
       </c>
     </row>
     <row r="14">
@@ -1702,10 +1702,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.06117718128066235</v>
+        <v>0.1571796969577062</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2897094928765834</v>
+        <v>0.009409034292440225</v>
       </c>
     </row>
     <row r="15">
@@ -1715,10 +1715,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7.761367571789174e-06</v>
+        <v>9.041712239398502e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6754562245074902</v>
+        <v>0.6415311656102125</v>
       </c>
     </row>
     <row r="16">
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-26.14080417360341</v>
+        <v>-10.21096589896994</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08238198335037192</v>
+        <v>0.520950651771775</v>
       </c>
     </row>
     <row r="17">
@@ -1741,10 +1741,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-20.27745195872622</v>
+        <v>-9.672868247928314</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1734946111770428</v>
+        <v>0.5388859355877885</v>
       </c>
     </row>
     <row r="18">
@@ -1754,10 +1754,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3934.633771607707</v>
+        <v>-3294.172541180135</v>
       </c>
       <c r="C18" t="n">
-        <v>0.06142606414161373</v>
+        <v>0.1336434103442284</v>
       </c>
     </row>
     <row r="19">
@@ -1767,10 +1767,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-5718.983668482021</v>
+        <v>-8652.841357944257</v>
       </c>
       <c r="C19" t="n">
-        <v>0.00199976981197438</v>
+        <v>9.8218777407362e-06</v>
       </c>
     </row>
   </sheetData>
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12920.87321981042</v>
+        <v>11406.85931575491</v>
       </c>
       <c r="C2" t="n">
-        <v>2.544413603552208e-07</v>
+        <v>2.033263146820795e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1829,10 +1829,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-912.2844462706428</v>
+        <v>-162.6293846699612</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3438464539362208</v>
+        <v>0.8775811104592267</v>
       </c>
     </row>
     <row r="4">
@@ -1842,10 +1842,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>108.6011899283715</v>
+        <v>376.3226359065916</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7696206294894494</v>
+        <v>0.341827090195887</v>
       </c>
     </row>
     <row r="5">
@@ -1855,10 +1855,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-67.50253583728062</v>
+        <v>193.7147748162572</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8446319136599694</v>
+        <v>0.5954186085674288</v>
       </c>
     </row>
     <row r="6">
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>222.4685772350688</v>
+        <v>88.63766055769787</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6818385321018938</v>
+        <v>0.8739586568417994</v>
       </c>
     </row>
     <row r="7">
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>248.3661445175513</v>
+        <v>795.4485027688869</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5923419118543423</v>
+        <v>0.1090537440069193</v>
       </c>
     </row>
     <row r="8">
@@ -1894,10 +1894,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>345.1033705419821</v>
+        <v>660.5452465652642</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2731777921724037</v>
+        <v>0.04904389643474834</v>
       </c>
     </row>
     <row r="9">
@@ -1907,10 +1907,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-78.74666236800617</v>
+        <v>-36.34369005212963</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5380029764521476</v>
+        <v>0.7888762294135347</v>
       </c>
     </row>
     <row r="10">
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1780.734813512433</v>
+        <v>-1959.907006520043</v>
       </c>
       <c r="C10" t="n">
-        <v>1.200778286357897e-10</v>
+        <v>2.297894028645266e-11</v>
       </c>
     </row>
     <row r="11">
@@ -1933,10 +1933,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.309844646960695</v>
+        <v>-0.7092412788894897</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9179318689960301</v>
+        <v>0.9578617451883285</v>
       </c>
     </row>
     <row r="12">
@@ -1946,10 +1946,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-433.4351750685807</v>
+        <v>-353.5128988616066</v>
       </c>
       <c r="C12" t="n">
-        <v>4.493086813123971e-06</v>
+        <v>0.0003284304391159654</v>
       </c>
     </row>
     <row r="13">
@@ -1959,10 +1959,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>849.7336668127857</v>
+        <v>784.1834651753561</v>
       </c>
       <c r="C13" t="n">
-        <v>3.403848837861711e-25</v>
+        <v>5.01273444537025e-20</v>
       </c>
     </row>
     <row r="14">
@@ -1972,10 +1972,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1090199220603201</v>
+        <v>0.04322410134496164</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05905324025846685</v>
+        <v>0.4771179489535885</v>
       </c>
     </row>
     <row r="15">
@@ -1985,10 +1985,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.356159811719045e-06</v>
+        <v>-8.893274203291821e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8532026331217253</v>
+        <v>0.6513636341695792</v>
       </c>
     </row>
     <row r="16">
@@ -1998,10 +1998,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-31.03034433687023</v>
+        <v>-9.33758401820992</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03739382896577501</v>
+        <v>0.5565571600649346</v>
       </c>
     </row>
     <row r="17">
@@ -2011,10 +2011,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-24.48313236884271</v>
+        <v>-16.20209333251129</v>
       </c>
       <c r="C17" t="n">
-        <v>0.09434708781498184</v>
+        <v>0.3002565206987452</v>
       </c>
     </row>
     <row r="18">
@@ -2024,10 +2024,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3852.214002839331</v>
+        <v>-1905.474825734355</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0634731534550107</v>
+        <v>0.3923949288581594</v>
       </c>
     </row>
     <row r="19">
@@ -2037,10 +2037,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-5623.563089246689</v>
+        <v>-5381.449231831786</v>
       </c>
       <c r="C19" t="n">
-        <v>0.002343943893049453</v>
+        <v>0.005785469945823938</v>
       </c>
     </row>
   </sheetData>
@@ -2086,10 +2086,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12653.18686771569</v>
+        <v>10411.24621313995</v>
       </c>
       <c r="C2" t="n">
-        <v>5.621221701492875e-07</v>
+        <v>9.327400611971506e-05</v>
       </c>
     </row>
     <row r="3">
@@ -2099,10 +2099,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1419.305983400323</v>
+        <v>-775.1041898733713</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1489879131125969</v>
+        <v>0.4819309801852595</v>
       </c>
     </row>
     <row r="4">
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>220.5475690101547</v>
+        <v>499.4335955543803</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5586322434989928</v>
+        <v>0.2085829963706854</v>
       </c>
     </row>
     <row r="5">
@@ -2125,10 +2125,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-61.7155268158516</v>
+        <v>248.6629969511002</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8587784779000907</v>
+        <v>0.499659156238712</v>
       </c>
     </row>
     <row r="6">
@@ -2138,10 +2138,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>136.9558467277607</v>
+        <v>467.8814070192597</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8002746827393301</v>
+        <v>0.4090788151869649</v>
       </c>
     </row>
     <row r="7">
@@ -2151,10 +2151,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>795.5018542441228</v>
+        <v>542.249558551146</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09726538645144173</v>
+        <v>0.2749941647854712</v>
       </c>
     </row>
     <row r="8">
@@ -2164,10 +2164,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>510.8979907885313</v>
+        <v>577.3987858343281</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1049903586945272</v>
+        <v>0.08644900262023504</v>
       </c>
     </row>
     <row r="9">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-134.5502640394154</v>
+        <v>-58.92529113247629</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2968610851324401</v>
+        <v>0.6686469683871215</v>
       </c>
     </row>
     <row r="10">
@@ -2190,10 +2190,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1506.95886334607</v>
+        <v>-1971.99194049636</v>
       </c>
       <c r="C10" t="n">
-        <v>5.238859567788716e-08</v>
+        <v>2.698360017387689e-11</v>
       </c>
     </row>
     <row r="11">
@@ -2203,10 +2203,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-6.60616312109698</v>
+        <v>10.49931153815741</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6043313637134033</v>
+        <v>0.4423512477586627</v>
       </c>
     </row>
     <row r="12">
@@ -2216,10 +2216,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-344.0034548239114</v>
+        <v>-357.6547379476864</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0002890439081910497</v>
+        <v>0.0003182099280109326</v>
       </c>
     </row>
     <row r="13">
@@ -2229,10 +2229,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>736.7894691600593</v>
+        <v>826.0507828456564</v>
       </c>
       <c r="C13" t="n">
-        <v>2.376019315849277e-19</v>
+        <v>5.043135528509872e-22</v>
       </c>
     </row>
     <row r="14">
@@ -2242,10 +2242,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.05172591329211942</v>
+        <v>0.121078417001058</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3659869404712693</v>
+        <v>0.04816126759222419</v>
       </c>
     </row>
     <row r="15">
@@ -2255,10 +2255,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.880933272852063e-05</v>
+        <v>6.189480977474901e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3119230284367445</v>
+        <v>0.752993934212585</v>
       </c>
     </row>
     <row r="16">
@@ -2268,10 +2268,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-23.32231854039312</v>
+        <v>-17.39966192861984</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1205996531816195</v>
+        <v>0.2690307375934133</v>
       </c>
     </row>
     <row r="17">
@@ -2281,10 +2281,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-17.42130501860975</v>
+        <v>-12.42462155081466</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2361811334915061</v>
+        <v>0.4236029797641763</v>
       </c>
     </row>
     <row r="18">
@@ -2294,10 +2294,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-5177.408523575783</v>
+        <v>-1776.405051670002</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01242541535096594</v>
+        <v>0.4168726253845599</v>
       </c>
     </row>
     <row r="19">
@@ -2307,10 +2307,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-5467.013676201735</v>
+        <v>-6916.42064861104</v>
       </c>
       <c r="C19" t="n">
-        <v>0.003332880567925396</v>
+        <v>0.0004617558126982406</v>
       </c>
     </row>
   </sheetData>
@@ -2356,10 +2356,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13211.00913520603</v>
+        <v>12343.72168292293</v>
       </c>
       <c r="C2" t="n">
-        <v>3.058114850541569e-07</v>
+        <v>3.812908193527823e-06</v>
       </c>
     </row>
     <row r="3">
@@ -2369,10 +2369,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-920.3732056736571</v>
+        <v>-556.2733162665738</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3793941498612347</v>
+        <v>0.5856359345197946</v>
       </c>
     </row>
     <row r="4">
@@ -2382,10 +2382,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.25678357526652</v>
+        <v>-24.4726881015755</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8590571708839025</v>
+        <v>0.9508653877715002</v>
       </c>
     </row>
     <row r="5">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-247.1808026782325</v>
+        <v>9.209294672351348</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4839428437910175</v>
+        <v>0.979861869691989</v>
       </c>
     </row>
     <row r="6">
@@ -2408,10 +2408,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>448.1966644325339</v>
+        <v>304.0140283100831</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4111699554532795</v>
+        <v>0.5980267844386198</v>
       </c>
     </row>
     <row r="7">
@@ -2421,10 +2421,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>572.7554156856033</v>
+        <v>344.9919183362697</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2364529453910465</v>
+        <v>0.4884730154590611</v>
       </c>
     </row>
     <row r="8">
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>401.6504291420151</v>
+        <v>618.4119410687615</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2125664917285006</v>
+        <v>0.06405315205933092</v>
       </c>
     </row>
     <row r="9">
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-122.847982539232</v>
+        <v>54.4437868597219</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3517852983846331</v>
+        <v>0.6867850965158224</v>
       </c>
     </row>
     <row r="10">
@@ -2460,10 +2460,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1611.638799613428</v>
+        <v>-1840.179720923156</v>
       </c>
       <c r="C10" t="n">
-        <v>1.25259889000374e-08</v>
+        <v>3.807701676232578e-10</v>
       </c>
     </row>
     <row r="11">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.952528173496937</v>
+        <v>3.687736499006792</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8814857461282</v>
+        <v>0.7855278318615697</v>
       </c>
     </row>
     <row r="12">
@@ -2486,10 +2486,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-436.6526429673839</v>
+        <v>-399.055138474788</v>
       </c>
       <c r="C12" t="n">
-        <v>5.554443595692762e-06</v>
+        <v>5.762942153839895e-05</v>
       </c>
     </row>
     <row r="13">
@@ -2499,10 +2499,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>785.4842924242101</v>
+        <v>789.2964234637208</v>
       </c>
       <c r="C13" t="n">
-        <v>8.500770336532429e-21</v>
+        <v>4.265416519266086e-20</v>
       </c>
     </row>
     <row r="14">
@@ -2512,10 +2512,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.08280084534196315</v>
+        <v>0.1295409790942824</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1600522883864988</v>
+        <v>0.03007451131992077</v>
       </c>
     </row>
     <row r="15">
@@ -2525,10 +2525,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.124814910072114e-05</v>
+        <v>8.529834929440648e-07</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5588469940681609</v>
+        <v>0.9667809366460258</v>
       </c>
     </row>
     <row r="16">
@@ -2538,10 +2538,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-24.41509350630575</v>
+        <v>-26.21147803543716</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1078159918842119</v>
+        <v>0.09674025489308288</v>
       </c>
     </row>
     <row r="17">
@@ -2551,10 +2551,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-20.31902960776127</v>
+        <v>-23.48719548608704</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1767176400747352</v>
+        <v>0.132026194368077</v>
       </c>
     </row>
     <row r="18">
@@ -2564,10 +2564,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-4743.417552157164</v>
+        <v>-1367.849232232658</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02590738316242991</v>
+        <v>0.5363620914496467</v>
       </c>
     </row>
     <row r="19">
@@ -2577,10 +2577,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-6264.957467328332</v>
+        <v>-6438.421130160546</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0009620008321343956</v>
+        <v>0.0009884612786195692</v>
       </c>
     </row>
   </sheetData>
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9386.608014318708</v>
+        <v>14377.17220845821</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001951163257491296</v>
+        <v>8.894123454711624e-08</v>
       </c>
     </row>
     <row r="3">
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-691.791961619145</v>
+        <v>-547.8940124427568</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4971031653719925</v>
+        <v>0.6111893014732281</v>
       </c>
     </row>
     <row r="4">
@@ -2652,10 +2652,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>308.3222732486395</v>
+        <v>601.1514699623635</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4071225716003867</v>
+        <v>0.1301340651361187</v>
       </c>
     </row>
     <row r="5">
@@ -2665,10 +2665,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-49.82628931290751</v>
+        <v>268.8375322714872</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8842048146558703</v>
+        <v>0.4621697167009859</v>
       </c>
     </row>
     <row r="6">
@@ -2678,10 +2678,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>205.6851862884089</v>
+        <v>11.15490566276196</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6967512449584289</v>
+        <v>0.9845530638256164</v>
       </c>
     </row>
     <row r="7">
@@ -2691,10 +2691,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>755.3195754638671</v>
+        <v>400.0297200478008</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1036400679559828</v>
+        <v>0.4181623570426514</v>
       </c>
     </row>
     <row r="8">
@@ -2704,10 +2704,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>659.3272243803773</v>
+        <v>569.3325374798337</v>
       </c>
       <c r="C8" t="n">
-        <v>0.035697613090103</v>
+        <v>0.08820145134207903</v>
       </c>
     </row>
     <row r="9">
@@ -2717,10 +2717,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-102.7296151291646</v>
+        <v>3.494881262723297</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4218225998546395</v>
+        <v>0.9794583007697388</v>
       </c>
     </row>
     <row r="10">
@@ -2730,10 +2730,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1594.729842930645</v>
+        <v>-1756.705388898125</v>
       </c>
       <c r="C10" t="n">
-        <v>6.119883453717086e-09</v>
+        <v>2.211155263928158e-09</v>
       </c>
     </row>
     <row r="11">
@@ -2743,10 +2743,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.013310651237532</v>
+        <v>-8.547944413557993</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6897199378459979</v>
+        <v>0.5250485384111707</v>
       </c>
     </row>
     <row r="12">
@@ -2756,10 +2756,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-344.4060698385219</v>
+        <v>-371.3495114983677</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0002085543318497956</v>
+        <v>0.0001631816425372327</v>
       </c>
     </row>
     <row r="13">
@@ -2769,10 +2769,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>780.3630673886446</v>
+        <v>788.9188314353369</v>
       </c>
       <c r="C13" t="n">
-        <v>2.285314476970282e-22</v>
+        <v>2.124057268487454e-20</v>
       </c>
     </row>
     <row r="14">
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0727866502460487</v>
+        <v>0.1264096665336972</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1958714596361372</v>
+        <v>0.03513740852882116</v>
       </c>
     </row>
     <row r="15">
@@ -2795,10 +2795,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.502171780648979e-06</v>
+        <v>-2.166172981165893e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8029869477410815</v>
+        <v>0.9126115712363572</v>
       </c>
     </row>
     <row r="16">
@@ -2808,10 +2808,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-10.75126971763994</v>
+        <v>-29.0625434717825</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4690382449135611</v>
+        <v>0.06807207335505483</v>
       </c>
     </row>
     <row r="17">
@@ -2821,10 +2821,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2.743615419315473</v>
+        <v>-35.86244585024181</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8535594021380587</v>
+        <v>0.0226899449596472</v>
       </c>
     </row>
     <row r="18">
@@ -2834,10 +2834,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3742.424682831721</v>
+        <v>-1141.390189164086</v>
       </c>
       <c r="C18" t="n">
-        <v>0.06991173102066926</v>
+        <v>0.6028079182371526</v>
       </c>
     </row>
     <row r="19">
@@ -2847,10 +2847,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-5717.389853064949</v>
+        <v>-6594.561464777651</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001678665377136217</v>
+        <v>0.0006689381846299385</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Wien.xlsx
+++ b/outputs/ML_Results/dist_commute/Wien.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ27911542" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ28210844" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ28525950" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ28904057" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ29204330" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ29504158" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ29820117" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ30118976" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ30418947" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ01333973" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ01629687" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ01916766" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ02221265" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ02513664" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ02812772" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ03096818" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ03385197" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ03671666" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_commute/Wien.xlsx
+++ b/outputs/ML_Results/dist_commute/Wien.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ01333973" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ01629687" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ01916766" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ02221265" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ02513664" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ02812772" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ03096818" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ03385197" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ03671666" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ45557288" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ45816904" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ46085323" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ46353177" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ46624468" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ46887817" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ47147673" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ47433559" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ47759333" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11528.69657993382</v>
+        <v>6478.259658954269</v>
       </c>
       <c r="C2" t="n">
-        <v>1.871596091997657e-05</v>
+        <v>5.580904055867462e-05</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-419.2906711671008</v>
+        <v>-385.7496091106888</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6805265470968016</v>
+        <v>0.7053855132569742</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>586.8896303987297</v>
+        <v>602.2954456671655</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1392867620380787</v>
+        <v>0.129950037684365</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>286.8561999378939</v>
+        <v>132.9999669353267</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4345186190257855</v>
+        <v>0.7157845695735234</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>339.2709476321059</v>
+        <v>388.3335158853214</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5436694886812032</v>
+        <v>0.4867182665996472</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>668.1937471239488</v>
+        <v>674.0693181788599</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1800013147629845</v>
+        <v>0.1754848590875855</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>505.0393674385231</v>
+        <v>660.2956988597509</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1293955570941825</v>
+        <v>0.04584736695415968</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14.0848360754497</v>
+        <v>-5.305057316957061</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9173151362636185</v>
+        <v>0.9688575884353796</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2242.780898089849</v>
+        <v>-2239.296044018472</v>
       </c>
       <c r="C10" t="n">
-        <v>2.312305949838488e-14</v>
+        <v>2.842224266658823e-14</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.409953282576522</v>
+        <v>2.043628623552079</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8575321840454713</v>
+        <v>0.8792690551797708</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-294.6169763232098</v>
+        <v>-119.5488573405189</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002952397455309834</v>
+        <v>0.1700271391791181</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>755.2473055240105</v>
+        <v>653.1174321751121</v>
       </c>
       <c r="C13" t="n">
-        <v>6.95700094451576e-19</v>
+        <v>3.592005585437617e-16</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1003767835175774</v>
+        <v>-0.07677730270703811</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0969710945436172</v>
+        <v>0.05940396688785691</v>
       </c>
     </row>
     <row r="15">
@@ -635,62 +635,36 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-5.165624622397809e-07</v>
+        <v>-2.306541168642932e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9787698496957168</v>
+        <v>0.9000161977897092</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-17.24605940732713</v>
+        <v>11.23606384090884</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2780731101989299</v>
+        <v>0.2399731523061593</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-17.97221139374197</v>
+        <v>860.2275757188153</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2520715642675693</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>285.9359759149986</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.8952941083345706</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-6861.373704581373</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.0004824784091994947</v>
+        <v>0.6791345755608291</v>
       </c>
     </row>
   </sheetData>
@@ -704,7 +678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -736,10 +710,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14644.45921587761</v>
+        <v>7501.065227194155</v>
       </c>
       <c r="C2" t="n">
-        <v>3.776622851062801e-08</v>
+        <v>2.442623874588927e-06</v>
       </c>
     </row>
     <row r="3">
@@ -749,10 +723,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-264.7477979306295</v>
+        <v>-202.2638161360737</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8041659057341205</v>
+        <v>0.8501530669592495</v>
       </c>
     </row>
     <row r="4">
@@ -762,10 +736,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>191.0634284452144</v>
+        <v>208.2673399284338</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6228302574276509</v>
+        <v>0.592909297748681</v>
       </c>
     </row>
     <row r="5">
@@ -775,10 +749,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-357.48562544023</v>
+        <v>-509.9280874178931</v>
       </c>
       <c r="C5" t="n">
-        <v>0.323878035511255</v>
+        <v>0.1580043312042226</v>
       </c>
     </row>
     <row r="6">
@@ -788,10 +762,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>326.9707132425829</v>
+        <v>344.2398064478458</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5650603188367289</v>
+        <v>0.5443698335747711</v>
       </c>
     </row>
     <row r="7">
@@ -801,10 +775,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>678.1603552368986</v>
+        <v>645.5367610998142</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1671540856716972</v>
+        <v>0.1879401574442882</v>
       </c>
     </row>
     <row r="8">
@@ -814,10 +788,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>450.9107846303838</v>
+        <v>630.0108196016852</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1739537639393963</v>
+        <v>0.05506897079081669</v>
       </c>
     </row>
     <row r="9">
@@ -827,10 +801,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.5157845893093054</v>
+        <v>-19.99017832731585</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9969383347786356</v>
+        <v>0.8820591235387862</v>
       </c>
     </row>
     <row r="10">
@@ -840,10 +814,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2056.419097429711</v>
+        <v>-2023.096287323178</v>
       </c>
       <c r="C10" t="n">
-        <v>1.52450539889883e-12</v>
+        <v>3.854242583972444e-12</v>
       </c>
     </row>
     <row r="11">
@@ -853,10 +827,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.272634161145669</v>
+        <v>-1.553582618966015</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9244089191409741</v>
+        <v>0.9080405895998607</v>
       </c>
     </row>
     <row r="12">
@@ -866,10 +840,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-305.014855860554</v>
+        <v>-126.9428907862597</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001957070039828908</v>
+        <v>0.1424767704627879</v>
       </c>
     </row>
     <row r="13">
@@ -879,10 +853,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>722.825897779703</v>
+        <v>621.5488689288043</v>
       </c>
       <c r="C13" t="n">
-        <v>9.139260393048416e-18</v>
+        <v>4.842393103127139e-15</v>
       </c>
     </row>
     <row r="14">
@@ -892,10 +866,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.09824264759193425</v>
+        <v>-0.09000040097549933</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09701254865406125</v>
+        <v>0.02365203118809182</v>
       </c>
     </row>
     <row r="15">
@@ -905,62 +879,36 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7.583106292549499e-06</v>
+        <v>7.216984984763951e-07</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6892422734658226</v>
+        <v>0.9678674232189524</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-32.54836645351839</v>
+        <v>10.12471680920723</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03908396201220427</v>
+        <v>0.2838592548802206</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-30.98698409284619</v>
+        <v>-811.4034361073687</v>
       </c>
       <c r="C17" t="n">
-        <v>0.04603237857728842</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-1916.786328887803</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.3724690351526685</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-6689.00919755596</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.0005692324656655952</v>
+        <v>0.6940405891655643</v>
       </c>
     </row>
   </sheetData>
@@ -974,7 +922,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1006,10 +954,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12152.22467060801</v>
+        <v>7332.632698746929</v>
       </c>
       <c r="C2" t="n">
-        <v>6.602319543120394e-06</v>
+        <v>5.872095088851841e-06</v>
       </c>
     </row>
     <row r="3">
@@ -1019,10 +967,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-843.3096700789001</v>
+        <v>-703.2964013769251</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4468174587996747</v>
+        <v>0.5259746026916199</v>
       </c>
     </row>
     <row r="4">
@@ -1032,10 +980,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>271.4813504390061</v>
+        <v>270.790620051834</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4933887994865388</v>
+        <v>0.4950263307940174</v>
       </c>
     </row>
     <row r="5">
@@ -1045,10 +993,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-80.36643481005535</v>
+        <v>-205.126722117321</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8254803246758793</v>
+        <v>0.5711452063418546</v>
       </c>
     </row>
     <row r="6">
@@ -1058,10 +1006,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>440.8958464881528</v>
+        <v>451.9646685693543</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4421616109541819</v>
+        <v>0.4299647448214472</v>
       </c>
     </row>
     <row r="7">
@@ -1071,10 +1019,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>131.1814334074501</v>
+        <v>91.96850238000241</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7910220366759642</v>
+        <v>0.8523813067264109</v>
       </c>
     </row>
     <row r="8">
@@ -1084,10 +1032,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>836.9060175636409</v>
+        <v>954.6995585722869</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0127639215543954</v>
+        <v>0.004165216827501286</v>
       </c>
     </row>
     <row r="9">
@@ -1097,10 +1045,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.132617721126387</v>
+        <v>-17.58898447383934</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9817248428481034</v>
+        <v>0.8977237128569148</v>
       </c>
     </row>
     <row r="10">
@@ -1110,10 +1058,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1990.939068854148</v>
+        <v>-1953.472215131615</v>
       </c>
       <c r="C10" t="n">
-        <v>1.319391750585593e-11</v>
+        <v>3.187582436950807e-11</v>
       </c>
     </row>
     <row r="11">
@@ -1123,10 +1071,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-10.71427541645199</v>
+        <v>-11.35891969625999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4310222223969528</v>
+        <v>0.4043149185136445</v>
       </c>
     </row>
     <row r="12">
@@ -1136,10 +1084,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-353.503794106658</v>
+        <v>-219.8758795578622</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0004271530053842389</v>
+        <v>0.01170863915496381</v>
       </c>
     </row>
     <row r="13">
@@ -1149,10 +1097,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>832.7307817345808</v>
+        <v>756.3943041633919</v>
       </c>
       <c r="C13" t="n">
-        <v>1.926204189409185e-22</v>
+        <v>3.166494366257243e-21</v>
       </c>
     </row>
     <row r="14">
@@ -1162,10 +1110,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.07614140025521335</v>
+        <v>-0.06292958618308364</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2176067329880547</v>
+        <v>0.1224026561481995</v>
       </c>
     </row>
     <row r="15">
@@ -1175,62 +1123,36 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>9.414372835153472e-06</v>
+        <v>4.993438741752104e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6263362443116797</v>
+        <v>0.7846244031757815</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-21.43625948325577</v>
+        <v>7.83338332940763</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1767195536874019</v>
+        <v>0.4116009746045278</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-20.11140245205016</v>
+        <v>-1549.489569053769</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1999120405182805</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-2241.315611348953</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.2974823628737027</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-4931.049454578909</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.01312804835875287</v>
+        <v>0.4516595838072173</v>
       </c>
     </row>
   </sheetData>
@@ -1244,7 +1166,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1276,10 +1198,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9774.042944941182</v>
+        <v>6794.599965029254</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002389726644727298</v>
+        <v>1.749281700155635e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1289,10 +1211,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1360.658298433067</v>
+        <v>-1391.209344265564</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1972259111917695</v>
+        <v>0.1874432073030788</v>
       </c>
     </row>
     <row r="4">
@@ -1302,10 +1224,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>610.6992035110417</v>
+        <v>625.6300142568929</v>
       </c>
       <c r="C4" t="n">
-        <v>0.113501395995</v>
+        <v>0.1050139750030194</v>
       </c>
     </row>
     <row r="5">
@@ -1315,10 +1237,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.363809828041241</v>
+        <v>-74.38832604540093</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9858519992243945</v>
+        <v>0.8347462017885021</v>
       </c>
     </row>
     <row r="6">
@@ -1328,10 +1250,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>559.5793173249593</v>
+        <v>572.8124083726058</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3075639978607573</v>
+        <v>0.2951223530208207</v>
       </c>
     </row>
     <row r="7">
@@ -1341,10 +1263,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>745.4697735534932</v>
+        <v>723.9070364379085</v>
       </c>
       <c r="C7" t="n">
-        <v>0.138218562108373</v>
+        <v>0.1482400206889251</v>
       </c>
     </row>
     <row r="8">
@@ -1354,10 +1276,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>747.5287496959636</v>
+        <v>826.1784068313998</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02308134492874355</v>
+        <v>0.01130940417606886</v>
       </c>
     </row>
     <row r="9">
@@ -1367,10 +1289,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-108.419291085087</v>
+        <v>-118.3242740801121</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4142301768514393</v>
+        <v>0.3728073837914743</v>
       </c>
     </row>
     <row r="10">
@@ -1380,10 +1302,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1694.040480327836</v>
+        <v>-1677.658455714629</v>
       </c>
       <c r="C10" t="n">
-        <v>4.661792407470473e-09</v>
+        <v>6.412470862414919e-09</v>
       </c>
     </row>
     <row r="11">
@@ -1393,10 +1315,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3.70108513532267</v>
+        <v>-4.207139440032021</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7807845826254289</v>
+        <v>0.7517932439237038</v>
       </c>
     </row>
     <row r="12">
@@ -1406,10 +1328,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-269.8030634830312</v>
+        <v>-176.3528866450687</v>
       </c>
       <c r="C12" t="n">
-        <v>0.005870340253872317</v>
+        <v>0.03890391090210579</v>
       </c>
     </row>
     <row r="13">
@@ -1419,10 +1341,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>801.3344188858449</v>
+        <v>747.6960616777674</v>
       </c>
       <c r="C13" t="n">
-        <v>2.249088394485579e-21</v>
+        <v>3.711290250205238e-21</v>
       </c>
     </row>
     <row r="14">
@@ -1432,10 +1354,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01741026628571279</v>
+        <v>-0.07759043510626587</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7737807625966645</v>
+        <v>0.05542983408515464</v>
       </c>
     </row>
     <row r="15">
@@ -1445,62 +1367,36 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8.383975850285382e-06</v>
+        <v>6.598107820475981e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6635663319358427</v>
+        <v>0.7170869933571939</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-11.93965162795913</v>
+        <v>6.175170128067817</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4467710604570552</v>
+        <v>0.5109512741663991</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-11.03997561048204</v>
+        <v>-13.29762087130183</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4752571862197917</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-406.0546699234683</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.8502912489778418</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-3504.728265838148</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.06956579570238339</v>
+        <v>0.9948262296880473</v>
       </c>
     </row>
   </sheetData>
@@ -1514,7 +1410,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1546,10 +1442,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10676.33277712258</v>
+        <v>5968.189802406573</v>
       </c>
       <c r="C2" t="n">
-        <v>7.182850864646069e-05</v>
+        <v>0.0002492759040986716</v>
       </c>
     </row>
     <row r="3">
@@ -1559,10 +1455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-851.5164939852087</v>
+        <v>-836.4946065707461</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4165974225950533</v>
+        <v>0.4263052584028389</v>
       </c>
     </row>
     <row r="4">
@@ -1572,10 +1468,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58.41894841708006</v>
+        <v>82.51954478793856</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8827447538890013</v>
+        <v>0.8354785537256575</v>
       </c>
     </row>
     <row r="5">
@@ -1585,10 +1481,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-30.36104974135256</v>
+        <v>-238.2010490671229</v>
       </c>
       <c r="C5" t="n">
-        <v>0.933864405159661</v>
+        <v>0.5132816266727964</v>
       </c>
     </row>
     <row r="6">
@@ -1598,10 +1494,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>423.8092966288515</v>
+        <v>481.693245162153</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4575364922721682</v>
+        <v>0.3979276838637117</v>
       </c>
     </row>
     <row r="7">
@@ -1611,10 +1507,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>357.5424034202349</v>
+        <v>343.8124870816285</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4723247140559131</v>
+        <v>0.4882215927436644</v>
       </c>
     </row>
     <row r="8">
@@ -1624,10 +1520,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>882.4348594978624</v>
+        <v>1067.042465010758</v>
       </c>
       <c r="C8" t="n">
-        <v>0.008179086909431614</v>
+        <v>0.001309219985243039</v>
       </c>
     </row>
     <row r="9">
@@ -1637,10 +1533,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>68.18793754794173</v>
+        <v>44.19782548460108</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6107830652104362</v>
+        <v>0.742105059222071</v>
       </c>
     </row>
     <row r="10">
@@ -1650,10 +1546,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1808.819356091209</v>
+        <v>-1794.658564078195</v>
       </c>
       <c r="C10" t="n">
-        <v>7.296349267325692e-10</v>
+        <v>1.104005611274042e-09</v>
       </c>
     </row>
     <row r="11">
@@ -1663,10 +1559,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2.253178017471349</v>
+        <v>-2.642146824735267</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8673847754843498</v>
+        <v>0.8452450459992998</v>
       </c>
     </row>
     <row r="12">
@@ -1676,10 +1572,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-432.6456470518007</v>
+        <v>-218.513445901997</v>
       </c>
       <c r="C12" t="n">
-        <v>1.10264759811938e-05</v>
+        <v>0.01164454770531452</v>
       </c>
     </row>
     <row r="13">
@@ -1689,10 +1585,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>811.575019353854</v>
+        <v>682.5727933240782</v>
       </c>
       <c r="C13" t="n">
-        <v>1.140989157869262e-21</v>
+        <v>1.229477118928318e-17</v>
       </c>
     </row>
     <row r="14">
@@ -1702,10 +1598,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1571796969577062</v>
+        <v>-0.05515220478377049</v>
       </c>
       <c r="C14" t="n">
-        <v>0.009409034292440225</v>
+        <v>0.17551630641331</v>
       </c>
     </row>
     <row r="15">
@@ -1715,62 +1611,36 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>9.041712239398502e-06</v>
+        <v>1.088877866893836e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6415311656102125</v>
+        <v>0.5534868179791383</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-10.21096589896994</v>
+        <v>17.76247960741053</v>
       </c>
       <c r="C16" t="n">
-        <v>0.520950651771775</v>
+        <v>0.06622554927533202</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-9.672868247928314</v>
+        <v>-3024.961641057725</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5388859355877885</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-3294.172541180135</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.1336434103442284</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-8652.841357944257</v>
-      </c>
-      <c r="C19" t="n">
-        <v>9.8218777407362e-06</v>
+        <v>0.1518117580614864</v>
       </c>
     </row>
   </sheetData>
@@ -1784,7 +1654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1816,10 +1686,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11406.85931575491</v>
+        <v>8125.406324538049</v>
       </c>
       <c r="C2" t="n">
-        <v>2.033263146820795e-05</v>
+        <v>3.591560480089779e-07</v>
       </c>
     </row>
     <row r="3">
@@ -1829,10 +1699,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-162.6293846699612</v>
+        <v>-152.2052429659623</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8775811104592267</v>
+        <v>0.8854627983997949</v>
       </c>
     </row>
     <row r="4">
@@ -1842,10 +1712,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>376.3226359065916</v>
+        <v>385.8513159771881</v>
       </c>
       <c r="C4" t="n">
-        <v>0.341827090195887</v>
+        <v>0.3302147748406085</v>
       </c>
     </row>
     <row r="5">
@@ -1855,10 +1725,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>193.7147748162572</v>
+        <v>59.8744991266268</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5954186085674288</v>
+        <v>0.8687263130830585</v>
       </c>
     </row>
     <row r="6">
@@ -1868,10 +1738,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>88.63766055769787</v>
+        <v>125.3008807250538</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8739586568417994</v>
+        <v>0.8220681549323734</v>
       </c>
     </row>
     <row r="7">
@@ -1881,10 +1751,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>795.4485027688869</v>
+        <v>788.7226966058763</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1090537440069193</v>
+        <v>0.1112395984872488</v>
       </c>
     </row>
     <row r="8">
@@ -1894,10 +1764,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>660.5452465652642</v>
+        <v>799.0924076246325</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04904389643474834</v>
+        <v>0.0161830685830511</v>
       </c>
     </row>
     <row r="9">
@@ -1907,10 +1777,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-36.34369005212963</v>
+        <v>-60.89397121392929</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7888762294135347</v>
+        <v>0.6534414602278912</v>
       </c>
     </row>
     <row r="10">
@@ -1920,10 +1790,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1959.907006520043</v>
+        <v>-1954.453137086248</v>
       </c>
       <c r="C10" t="n">
-        <v>2.297894028645266e-11</v>
+        <v>2.730742008280971e-11</v>
       </c>
     </row>
     <row r="11">
@@ -1933,10 +1803,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.7092412788894897</v>
+        <v>-0.9805529262112316</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9578617451883285</v>
+        <v>0.9418252016874435</v>
       </c>
     </row>
     <row r="12">
@@ -1946,10 +1816,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-353.5128988616066</v>
+        <v>-219.1998262812011</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0003284304391159654</v>
+        <v>0.01139657724650697</v>
       </c>
     </row>
     <row r="13">
@@ -1959,10 +1829,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>784.1834651753561</v>
+        <v>703.215812192846</v>
       </c>
       <c r="C13" t="n">
-        <v>5.01273444537025e-20</v>
+        <v>2.393208626228979e-18</v>
       </c>
     </row>
     <row r="14">
@@ -1972,10 +1842,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.04322410134496164</v>
+        <v>-0.09209542006206048</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4771179489535885</v>
+        <v>0.0239651126955349</v>
       </c>
     </row>
     <row r="15">
@@ -1985,62 +1855,36 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-8.893274203291821e-06</v>
+        <v>-9.392838580632513e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6513636341695792</v>
+        <v>0.614389177048869</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-9.33758401820992</v>
+        <v>2.985649227557521</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5565571600649346</v>
+        <v>0.7534754678769535</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-16.20209333251129</v>
+        <v>-1641.941838373938</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3002565206987452</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-1905.474825734355</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.3923949288581594</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-5381.449231831786</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.005785469945823938</v>
+        <v>0.4403468533616194</v>
       </c>
     </row>
   </sheetData>
@@ -2054,7 +1898,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2086,10 +1930,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10411.24621313995</v>
+        <v>5392.500760106766</v>
       </c>
       <c r="C2" t="n">
-        <v>9.327400611971506e-05</v>
+        <v>0.0008130932269245786</v>
       </c>
     </row>
     <row r="3">
@@ -2099,10 +1943,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-775.1041898733713</v>
+        <v>-731.559965106671</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4819309801852595</v>
+        <v>0.5075304804570294</v>
       </c>
     </row>
     <row r="4">
@@ -2112,10 +1956,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>499.4335955543803</v>
+        <v>502.3377172553595</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2085829963706854</v>
+        <v>0.2067770931365434</v>
       </c>
     </row>
     <row r="5">
@@ -2125,10 +1969,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>248.6629969511002</v>
+        <v>80.7939484993949</v>
       </c>
       <c r="C5" t="n">
-        <v>0.499659156238712</v>
+        <v>0.8254923618660731</v>
       </c>
     </row>
     <row r="6">
@@ -2138,10 +1982,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>467.8814070192597</v>
+        <v>472.4331894891549</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4090788151869649</v>
+        <v>0.4038734141653376</v>
       </c>
     </row>
     <row r="7">
@@ -2151,10 +1995,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>542.249558551146</v>
+        <v>526.7441352359365</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2749941647854712</v>
+        <v>0.288138189101235</v>
       </c>
     </row>
     <row r="8">
@@ -2164,10 +2008,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>577.3987858343281</v>
+        <v>749.0749022888992</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08644900262023504</v>
+        <v>0.02488716251961977</v>
       </c>
     </row>
     <row r="9">
@@ -2177,10 +2021,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-58.92529113247629</v>
+        <v>-85.4701732134684</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6686469683871215</v>
+        <v>0.5351513267956863</v>
       </c>
     </row>
     <row r="10">
@@ -2190,10 +2034,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1971.99194049636</v>
+        <v>-1948.996019393504</v>
       </c>
       <c r="C10" t="n">
-        <v>2.698360017387689e-11</v>
+        <v>4.905955434102503e-11</v>
       </c>
     </row>
     <row r="11">
@@ -2203,10 +2047,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.49931153815741</v>
+        <v>10.32509079426879</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4423512477586627</v>
+        <v>0.4509453404633769</v>
       </c>
     </row>
     <row r="12">
@@ -2216,10 +2060,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-357.6547379476864</v>
+        <v>-177.762849389344</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0003182099280109326</v>
+        <v>0.04092340865334278</v>
       </c>
     </row>
     <row r="13">
@@ -2229,10 +2073,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>826.0507828456564</v>
+        <v>721.8136640983039</v>
       </c>
       <c r="C13" t="n">
-        <v>5.043135528509872e-22</v>
+        <v>3.161610220362105e-19</v>
       </c>
     </row>
     <row r="14">
@@ -2242,10 +2086,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.121078417001058</v>
+        <v>-0.05894359083296589</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04816126759222419</v>
+        <v>0.1519326571547616</v>
       </c>
     </row>
     <row r="15">
@@ -2255,62 +2099,36 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6.189480977474901e-06</v>
+        <v>4.30754666492314e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.752993934212585</v>
+        <v>0.8173058389108594</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-17.39966192861984</v>
+        <v>16.56587207280698</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2690307375934133</v>
+        <v>0.08426025600289684</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-12.42462155081466</v>
+        <v>-1243.819020513504</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4236029797641763</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-1776.405051670002</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.4168726253845599</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-6916.42064861104</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.0004617558126982406</v>
+        <v>0.5530533038448426</v>
       </c>
     </row>
   </sheetData>
@@ -2324,7 +2142,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2356,10 +2174,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12343.72168292293</v>
+        <v>6218.89148154914</v>
       </c>
       <c r="C2" t="n">
-        <v>3.812908193527823e-06</v>
+        <v>0.0001136633391525924</v>
       </c>
     </row>
     <row r="3">
@@ -2369,10 +2187,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-556.2733162665738</v>
+        <v>-505.8726518650565</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5856359345197946</v>
+        <v>0.6208508563646928</v>
       </c>
     </row>
     <row r="4">
@@ -2382,10 +2200,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-24.4726881015755</v>
+        <v>-3.484045256464924</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9508653877715002</v>
+        <v>0.9930166034681105</v>
       </c>
     </row>
     <row r="5">
@@ -2395,10 +2213,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.209294672351348</v>
+        <v>-127.4564482468237</v>
       </c>
       <c r="C5" t="n">
-        <v>0.979861869691989</v>
+        <v>0.7261101239658315</v>
       </c>
     </row>
     <row r="6">
@@ -2408,10 +2226,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>304.0140283100831</v>
+        <v>257.3305606145106</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5980267844386198</v>
+        <v>0.6551816844292162</v>
       </c>
     </row>
     <row r="7">
@@ -2421,10 +2239,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>344.9919183362697</v>
+        <v>295.0578606270946</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4884730154590611</v>
+        <v>0.5530163915127234</v>
       </c>
     </row>
     <row r="8">
@@ -2434,10 +2252,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>618.4119410687615</v>
+        <v>769.917372015374</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06405315205933092</v>
+        <v>0.02018724733730949</v>
       </c>
     </row>
     <row r="9">
@@ -2447,10 +2265,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>54.4437868597219</v>
+        <v>27.00485075879689</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6867850965158224</v>
+        <v>0.8416565221678071</v>
       </c>
     </row>
     <row r="10">
@@ -2460,10 +2278,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1840.179720923156</v>
+        <v>-1815.260195702998</v>
       </c>
       <c r="C10" t="n">
-        <v>3.807701676232578e-10</v>
+        <v>7.069339214344988e-10</v>
       </c>
     </row>
     <row r="11">
@@ -2473,10 +2291,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.687736499006792</v>
+        <v>3.31677343917054</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7855278318615697</v>
+        <v>0.8070772545862627</v>
       </c>
     </row>
     <row r="12">
@@ -2486,10 +2304,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-399.055138474788</v>
+        <v>-227.9247677845364</v>
       </c>
       <c r="C12" t="n">
-        <v>5.762942153839895e-05</v>
+        <v>0.00886711419490714</v>
       </c>
     </row>
     <row r="13">
@@ -2499,10 +2317,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>789.2964234637208</v>
+        <v>693.8625867281233</v>
       </c>
       <c r="C13" t="n">
-        <v>4.265416519266086e-20</v>
+        <v>1.149667365635502e-17</v>
       </c>
     </row>
     <row r="14">
@@ -2512,10 +2330,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1295409790942824</v>
+        <v>-0.04593982809305747</v>
       </c>
       <c r="C14" t="n">
-        <v>0.03007451131992077</v>
+        <v>0.2528106291712313</v>
       </c>
     </row>
     <row r="15">
@@ -2525,62 +2343,36 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8.529834929440648e-07</v>
+        <v>-6.213681143392877e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9667809366460258</v>
+        <v>0.7500166969595478</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-26.21147803543716</v>
+        <v>11.87866133230809</v>
       </c>
       <c r="C16" t="n">
-        <v>0.09674025489308288</v>
+        <v>0.2164608185763316</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-23.48719548608704</v>
+        <v>-371.2513892437603</v>
       </c>
       <c r="C17" t="n">
-        <v>0.132026194368077</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-1367.849232232658</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.5363620914496467</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-6438.421130160546</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.0009884612786195692</v>
+        <v>0.8609574706317564</v>
       </c>
     </row>
   </sheetData>
@@ -2594,7 +2386,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2626,10 +2418,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14377.17220845821</v>
+        <v>7818.257272575088</v>
       </c>
       <c r="C2" t="n">
-        <v>8.894123454711624e-08</v>
+        <v>1.202066683426833e-06</v>
       </c>
     </row>
     <row r="3">
@@ -2639,10 +2431,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-547.8940124427568</v>
+        <v>-551.2866806432107</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6111893014732281</v>
+        <v>0.6099295281507071</v>
       </c>
     </row>
     <row r="4">
@@ -2652,10 +2444,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>601.1514699623635</v>
+        <v>597.74825170441</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1301340651361187</v>
+        <v>0.1333126915292159</v>
       </c>
     </row>
     <row r="5">
@@ -2665,10 +2457,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>268.8375322714872</v>
+        <v>99.13009075374573</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4621697167009859</v>
+        <v>0.7853790123906152</v>
       </c>
     </row>
     <row r="6">
@@ -2678,10 +2470,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11.15490566276196</v>
+        <v>-19.94912551063703</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9845530638256164</v>
+        <v>0.9722903261183982</v>
       </c>
     </row>
     <row r="7">
@@ -2691,10 +2483,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>400.0297200478008</v>
+        <v>355.6742621866875</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4181623570426514</v>
+        <v>0.4705278232292675</v>
       </c>
     </row>
     <row r="8">
@@ -2704,10 +2496,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>569.3325374798337</v>
+        <v>737.7246226590569</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08820145134207903</v>
+        <v>0.02576981431319855</v>
       </c>
     </row>
     <row r="9">
@@ -2717,10 +2509,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.494881262723297</v>
+        <v>-32.29990237706661</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9794583007697388</v>
+        <v>0.812046494335908</v>
       </c>
     </row>
     <row r="10">
@@ -2730,10 +2522,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1756.705388898125</v>
+        <v>-1742.949262418005</v>
       </c>
       <c r="C10" t="n">
-        <v>2.211155263928158e-09</v>
+        <v>3.221995626767896e-09</v>
       </c>
     </row>
     <row r="11">
@@ -2743,10 +2535,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-8.547944413557993</v>
+        <v>-9.170344897926027</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5250485384111707</v>
+        <v>0.4963988902976622</v>
       </c>
     </row>
     <row r="12">
@@ -2756,10 +2548,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-371.3495114983677</v>
+        <v>-196.2576740315334</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0001631816425372327</v>
+        <v>0.02342718612306041</v>
       </c>
     </row>
     <row r="13">
@@ -2769,10 +2561,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>788.9188314353369</v>
+        <v>691.0708999954154</v>
       </c>
       <c r="C13" t="n">
-        <v>2.124057268487454e-20</v>
+        <v>7.377296665522375e-18</v>
       </c>
     </row>
     <row r="14">
@@ -2782,10 +2574,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1264096665336972</v>
+        <v>-0.0556043780600861</v>
       </c>
       <c r="C14" t="n">
-        <v>0.03513740852882116</v>
+        <v>0.1723853250744261</v>
       </c>
     </row>
     <row r="15">
@@ -2795,62 +2587,36 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2.166172981165893e-06</v>
+        <v>-9.09616741710021e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9126115712363572</v>
+        <v>0.6268724552472202</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-29.0625434717825</v>
+        <v>2.297069505029325</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06807207335505483</v>
+        <v>0.8109982519541866</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-35.86244585024181</v>
+        <v>-54.07620861406116</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0226899449596472</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-1141.390189164086</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.6028079182371526</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-6594.561464777651</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.0006689381846299385</v>
+        <v>0.9794561648216427</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Wien.xlsx
+++ b/outputs/ML_Results/dist_commute/Wien.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ45557288" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ45816904" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ46085323" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ46353177" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ46624468" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ46887817" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ47147673" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ47433559" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ47759333" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ19639738" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ19891441" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ20143570" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ20395949" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ20655235" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ20911968" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ21164454" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ21415620" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ21673860" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6478.259658954269</v>
+        <v>6478.259659637064</v>
       </c>
       <c r="C2" t="n">
-        <v>5.580904055867462e-05</v>
+        <v>5.580904051173486e-05</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-385.7496091106888</v>
+        <v>-385.749608944968</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7053855132569742</v>
+        <v>0.7053855132570866</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>602.2954456671655</v>
+        <v>602.2954456008461</v>
       </c>
       <c r="C4" t="n">
-        <v>0.129950037684365</v>
+        <v>0.129950037759701</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>132.9999669353267</v>
+        <v>132.9999668129446</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7157845695735234</v>
+        <v>0.715784569877175</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>388.3335158853214</v>
+        <v>388.3335157956942</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4867182665996472</v>
+        <v>0.4867182667007712</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>674.0693181788599</v>
+        <v>674.0693181586165</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1754848590875855</v>
+        <v>0.1754848590997375</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>660.2956988597509</v>
+        <v>660.2956987774168</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04584736695415968</v>
+        <v>0.04584736698366886</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-5.305057316957061</v>
+        <v>-5.305057406909825</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9688575884353796</v>
+        <v>0.9688575879051944</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2239.296044018472</v>
+        <v>-2239.296044008654</v>
       </c>
       <c r="C10" t="n">
-        <v>2.842224266658823e-14</v>
+        <v>2.842224267919163e-14</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.043628623552079</v>
+        <v>2.04362861961362</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8792690551797708</v>
+        <v>0.8792690554108847</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-119.5488573405189</v>
+        <v>-119.5488573358489</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1700271391791181</v>
+        <v>0.1700271391956696</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.1174321751121</v>
+        <v>653.1174321079042</v>
       </c>
       <c r="C13" t="n">
-        <v>3.592005585437617e-16</v>
+        <v>3.592005618984477e-16</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.07677730270703811</v>
+        <v>-7.677730272358702</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05940396688785691</v>
+        <v>0.05940396683790416</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2.306541168642932e-06</v>
+        <v>-2.306541166755999</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9000161977897092</v>
+        <v>0.9000161978388016</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11.23606384090884</v>
+        <v>11.23606384090808</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2399731523061593</v>
+        <v>0.2399731523061907</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>860.2275757188153</v>
+        <v>8.602275757189044</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6791345755608291</v>
+        <v>0.6791345755607981</v>
       </c>
     </row>
   </sheetData>
@@ -710,10 +710,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7501.065227194155</v>
+        <v>7501.065227289804</v>
       </c>
       <c r="C2" t="n">
-        <v>2.442623874588927e-06</v>
+        <v>2.442623874627947e-06</v>
       </c>
     </row>
     <row r="3">
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-202.2638161360737</v>
+        <v>-202.2638161963584</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8501530669592495</v>
+        <v>0.8501530669589483</v>
       </c>
     </row>
     <row r="4">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>208.2673399284338</v>
+        <v>208.2673398348604</v>
       </c>
       <c r="C4" t="n">
-        <v>0.592909297748681</v>
+        <v>0.5929092980002009</v>
       </c>
     </row>
     <row r="5">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-509.9280874178931</v>
+        <v>-509.9280875218258</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1580043312042226</v>
+        <v>0.1580043312487875</v>
       </c>
     </row>
     <row r="6">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>344.2398064478458</v>
+        <v>344.2398064002568</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5443698335747711</v>
+        <v>0.5443698336347649</v>
       </c>
     </row>
     <row r="7">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>645.5367610998142</v>
+        <v>645.5367610358535</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1879401574442882</v>
+        <v>0.1879401574773335</v>
       </c>
     </row>
     <row r="8">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>630.0108196016852</v>
+        <v>630.0108195726272</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05506897079081669</v>
+        <v>0.05506897080489631</v>
       </c>
     </row>
     <row r="9">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-19.99017832731585</v>
+        <v>-19.99017836046579</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8820591235387862</v>
+        <v>0.8820591233375696</v>
       </c>
     </row>
     <row r="10">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2023.096287323178</v>
+        <v>-2023.096287329403</v>
       </c>
       <c r="C10" t="n">
-        <v>3.854242583972444e-12</v>
+        <v>3.854242582725969e-12</v>
       </c>
     </row>
     <row r="11">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.553582618966015</v>
+        <v>-1.553582621188577</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9080405895998607</v>
+        <v>0.9080405894675612</v>
       </c>
     </row>
     <row r="12">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-126.9428907862597</v>
+        <v>-126.9428908375948</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1424767704627879</v>
+        <v>0.1424767702742538</v>
       </c>
     </row>
     <row r="13">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>621.5488689288043</v>
+        <v>621.5488689271369</v>
       </c>
       <c r="C13" t="n">
-        <v>4.842393103127139e-15</v>
+        <v>4.842393105510841e-15</v>
       </c>
     </row>
     <row r="14">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.09000040097549933</v>
+        <v>-9.000040099004416</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02365203118809182</v>
+        <v>0.02365203117063029</v>
       </c>
     </row>
     <row r="15">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7.216984984763951e-07</v>
+        <v>0.721698495366411</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9678674232189524</v>
+        <v>0.9678674233584328</v>
       </c>
     </row>
     <row r="16">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10.12471680920723</v>
+        <v>10.12471680920633</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2838592548802206</v>
+        <v>0.2838592548802634</v>
       </c>
     </row>
     <row r="17">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-811.4034361073687</v>
+        <v>-8.114034361072466</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6940405891655643</v>
+        <v>0.6940405891656083</v>
       </c>
     </row>
   </sheetData>
@@ -954,10 +954,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7332.632698746929</v>
+        <v>7332.632698751719</v>
       </c>
       <c r="C2" t="n">
-        <v>5.872095088851841e-06</v>
+        <v>5.872095088799941e-06</v>
       </c>
     </row>
     <row r="3">
@@ -967,10 +967,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-703.2964013769251</v>
+        <v>-703.2964009178233</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5259746026916199</v>
+        <v>0.5259746026912876</v>
       </c>
     </row>
     <row r="4">
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>270.790620051834</v>
+        <v>270.7906201078155</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4950263307940174</v>
+        <v>0.4950263306878548</v>
       </c>
     </row>
     <row r="5">
@@ -993,10 +993,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-205.126722117321</v>
+        <v>-205.1267219423254</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5711452063418546</v>
+        <v>0.5711452066109133</v>
       </c>
     </row>
     <row r="6">
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>451.9646685693543</v>
+        <v>451.9646688245026</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4299647448214472</v>
+        <v>0.429964744563594</v>
       </c>
     </row>
     <row r="7">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>91.96850238000241</v>
+        <v>91.96850249078909</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8523813067264109</v>
+        <v>0.8523813065516704</v>
       </c>
     </row>
     <row r="8">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>954.6995585722869</v>
+        <v>954.699558797933</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004165216827501286</v>
+        <v>0.00416521681806084</v>
       </c>
     </row>
     <row r="9">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-17.58898447383934</v>
+        <v>-17.5889844463559</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8977237128569148</v>
+        <v>0.8977237130175146</v>
       </c>
     </row>
     <row r="10">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1953.472215131615</v>
+        <v>-1953.472215086152</v>
       </c>
       <c r="C10" t="n">
-        <v>3.187582436950807e-11</v>
+        <v>3.187582441527621e-11</v>
       </c>
     </row>
     <row r="11">
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-11.35891969625999</v>
+        <v>-11.35891970493098</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4043149185136445</v>
+        <v>0.4043149181590502</v>
       </c>
     </row>
     <row r="12">
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-219.8758795578622</v>
+        <v>-219.875879514924</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01170863915496381</v>
+        <v>0.01170863917161017</v>
       </c>
     </row>
     <row r="13">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>756.3943041633919</v>
+        <v>756.3943043428047</v>
       </c>
       <c r="C13" t="n">
-        <v>3.166494366257243e-21</v>
+        <v>3.166494264451593e-21</v>
       </c>
     </row>
     <row r="14">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.06292958618308364</v>
+        <v>-6.292958623279137</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1224026561481995</v>
+        <v>0.1224026558825937</v>
       </c>
     </row>
     <row r="15">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.993438741752104e-06</v>
+        <v>4.9934389089346</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7846244031757815</v>
+        <v>0.7846243962281804</v>
       </c>
     </row>
     <row r="16">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.83338332940763</v>
+        <v>7.833383329407002</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4116009746045278</v>
+        <v>0.4116009746045663</v>
       </c>
     </row>
     <row r="17">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1549.489569053769</v>
+        <v>-15.49489569053438</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4516595838072173</v>
+        <v>0.4516595838073157</v>
       </c>
     </row>
   </sheetData>
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6794.599965029254</v>
+        <v>6794.599967523298</v>
       </c>
       <c r="C2" t="n">
-        <v>1.749281700155635e-05</v>
+        <v>1.749281690516192e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1391.209344265564</v>
+        <v>-1391.209345154692</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1874432073030788</v>
+        <v>0.1874432073024158</v>
       </c>
     </row>
     <row r="4">
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>625.6300142568929</v>
+        <v>625.6300139289901</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1050139750030194</v>
+        <v>0.1050139752261376</v>
       </c>
     </row>
     <row r="5">
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-74.38832604540093</v>
+        <v>-74.38832642553808</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8347462017885021</v>
+        <v>0.8347462009834997</v>
       </c>
     </row>
     <row r="6">
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>572.8124083726058</v>
+        <v>572.8124080255211</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2951223530208207</v>
+        <v>0.2951223533133202</v>
       </c>
     </row>
     <row r="7">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>723.9070364379085</v>
+        <v>723.9070359814236</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1482400206889251</v>
+        <v>0.1482400209376695</v>
       </c>
     </row>
     <row r="8">
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>826.1784068313998</v>
+        <v>826.1784067703572</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01130940417606886</v>
+        <v>0.01130940418233995</v>
       </c>
     </row>
     <row r="9">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-118.3242740801121</v>
+        <v>-118.3242740942051</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3728073837914743</v>
+        <v>0.3728073837329574</v>
       </c>
     </row>
     <row r="10">
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1677.658455714629</v>
+        <v>-1677.658456008674</v>
       </c>
       <c r="C10" t="n">
-        <v>6.412470862414919e-09</v>
+        <v>6.412470818190451e-09</v>
       </c>
     </row>
     <row r="11">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-4.207139440032021</v>
+        <v>-4.207139433856106</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7517932439237038</v>
+        <v>0.7517932442754496</v>
       </c>
     </row>
     <row r="12">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-176.3528866450687</v>
+        <v>-176.3528870060749</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03890391090210579</v>
+        <v>0.03890391048934167</v>
       </c>
     </row>
     <row r="13">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>747.6960616777674</v>
+        <v>747.6960617924692</v>
       </c>
       <c r="C13" t="n">
-        <v>3.711290250205238e-21</v>
+        <v>3.711290190284677e-21</v>
       </c>
     </row>
     <row r="14">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.07759043510626587</v>
+        <v>-7.759043520045761</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05542983408515464</v>
+        <v>0.05542983380747402</v>
       </c>
     </row>
     <row r="15">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6.598107820475981e-06</v>
+        <v>6.598107809356909</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7170869933571939</v>
+        <v>0.7170869938635905</v>
       </c>
     </row>
     <row r="16">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.175170128067817</v>
+        <v>6.175170128067574</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5109512741663991</v>
+        <v>0.5109512741664163</v>
       </c>
     </row>
     <row r="17">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-13.29762087130183</v>
+        <v>-0.1329762087119901</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9948262296880473</v>
+        <v>0.9948262296880873</v>
       </c>
     </row>
   </sheetData>
@@ -1442,10 +1442,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5968.189802406573</v>
+        <v>5968.189799757376</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002492759040986716</v>
+        <v>0.0002492759052310773</v>
       </c>
     </row>
     <row r="3">
@@ -1455,10 +1455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-836.4946065707461</v>
+        <v>-836.4946065516297</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4263052584028389</v>
+        <v>0.4263052584026996</v>
       </c>
     </row>
     <row r="4">
@@ -1468,10 +1468,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>82.51954478793856</v>
+        <v>82.51954451459962</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8354785537256575</v>
+        <v>0.8354785542896468</v>
       </c>
     </row>
     <row r="5">
@@ -1481,10 +1481,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-238.2010490671229</v>
+        <v>-238.2010494589625</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5132816266727964</v>
+        <v>0.5132816261033225</v>
       </c>
     </row>
     <row r="6">
@@ -1494,10 +1494,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>481.693245162153</v>
+        <v>481.6932451166581</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3979276838637117</v>
+        <v>0.3979276839086175</v>
       </c>
     </row>
     <row r="7">
@@ -1507,10 +1507,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>343.8124870816285</v>
+        <v>343.8124870810658</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4882215927436644</v>
+        <v>0.4882215927443572</v>
       </c>
     </row>
     <row r="8">
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1067.042465010758</v>
+        <v>1067.042465138847</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001309219985243039</v>
+        <v>0.001309219983373274</v>
       </c>
     </row>
     <row r="9">
@@ -1533,10 +1533,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>44.19782548460108</v>
+        <v>44.19782550662239</v>
       </c>
       <c r="C9" t="n">
-        <v>0.742105059222071</v>
+        <v>0.7421050591008237</v>
       </c>
     </row>
     <row r="10">
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1794.658564078195</v>
+        <v>-1794.65856401219</v>
       </c>
       <c r="C10" t="n">
-        <v>1.104005611274042e-09</v>
+        <v>1.104005613331793e-09</v>
       </c>
     </row>
     <row r="11">
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2.642146824735267</v>
+        <v>-2.642146824691476</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8452450459992998</v>
+        <v>0.8452450460018314</v>
       </c>
     </row>
     <row r="12">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-218.513445901997</v>
+        <v>-218.513445774169</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01164454770531452</v>
+        <v>0.01164454775563681</v>
       </c>
     </row>
     <row r="13">
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>682.5727933240782</v>
+        <v>682.5727932585137</v>
       </c>
       <c r="C13" t="n">
-        <v>1.229477118928318e-17</v>
+        <v>1.22947713045732e-17</v>
       </c>
     </row>
     <row r="14">
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.05515220478377049</v>
+        <v>-5.515220482305661</v>
       </c>
       <c r="C14" t="n">
-        <v>0.17551630641331</v>
+        <v>0.1755163061264928</v>
       </c>
     </row>
     <row r="15">
@@ -1611,10 +1611,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.088877866893836e-05</v>
+        <v>10.8887787155658</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5534868179791383</v>
+        <v>0.5534868161763165</v>
       </c>
     </row>
     <row r="16">
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>17.76247960741053</v>
+        <v>17.76247960740999</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06622554927533202</v>
+        <v>0.06622554927533983</v>
       </c>
     </row>
     <row r="17">
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3024.961641057725</v>
+        <v>-30.24961641057536</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1518117580614864</v>
+        <v>0.151811758061513</v>
       </c>
     </row>
   </sheetData>
@@ -1686,10 +1686,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8125.406324538049</v>
+        <v>8125.406325332134</v>
       </c>
       <c r="C2" t="n">
-        <v>3.591560480089779e-07</v>
+        <v>3.591560484601957e-07</v>
       </c>
     </row>
     <row r="3">
@@ -1699,10 +1699,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-152.2052429659623</v>
+        <v>-152.2052430522214</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8854627983997949</v>
+        <v>0.8854627983990639</v>
       </c>
     </row>
     <row r="4">
@@ -1712,10 +1712,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>385.8513159771881</v>
+        <v>385.8513159481963</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3302147748406085</v>
+        <v>0.3302147749229408</v>
       </c>
     </row>
     <row r="5">
@@ -1725,10 +1725,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59.8744991266268</v>
+        <v>59.87449905584077</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8687263130830585</v>
+        <v>0.868726313274034</v>
       </c>
     </row>
     <row r="6">
@@ -1738,10 +1738,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>125.3008807250538</v>
+        <v>125.3008807558719</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8220681549323734</v>
+        <v>0.8220681548893659</v>
       </c>
     </row>
     <row r="7">
@@ -1751,10 +1751,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>788.7226966058763</v>
+        <v>788.7226966124272</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1112395984872488</v>
+        <v>0.1112395984852897</v>
       </c>
     </row>
     <row r="8">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>799.0924076246325</v>
+        <v>799.0924076220465</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0161830685830511</v>
+        <v>0.01618306858352017</v>
       </c>
     </row>
     <row r="9">
@@ -1777,10 +1777,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-60.89397121392929</v>
+        <v>-60.89397121852097</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6534414602278912</v>
+        <v>0.653441460200854</v>
       </c>
     </row>
     <row r="10">
@@ -1790,10 +1790,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1954.453137086248</v>
+        <v>-1954.453137083128</v>
       </c>
       <c r="C10" t="n">
-        <v>2.730742008280971e-11</v>
+        <v>2.730742008975846e-11</v>
       </c>
     </row>
     <row r="11">
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.9805529262112316</v>
+        <v>-0.9805529265662898</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9418252016874435</v>
+        <v>0.9418252016664306</v>
       </c>
     </row>
     <row r="12">
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-219.1998262812011</v>
+        <v>-219.1998262490127</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01139657724650697</v>
+        <v>0.01139657725734056</v>
       </c>
     </row>
     <row r="13">
@@ -1829,10 +1829,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>703.215812192846</v>
+        <v>703.2158121350831</v>
       </c>
       <c r="C13" t="n">
-        <v>2.393208626228979e-18</v>
+        <v>2.39320864984097e-18</v>
       </c>
     </row>
     <row r="14">
@@ -1842,10 +1842,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.09209542006206048</v>
+        <v>-9.209542006424289</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0239651126955349</v>
+        <v>0.02396511269299748</v>
       </c>
     </row>
     <row r="15">
@@ -1855,10 +1855,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-9.392838580632513e-06</v>
+        <v>-9.392838568829037</v>
       </c>
       <c r="C15" t="n">
-        <v>0.614389177048869</v>
+        <v>0.6143891774851715</v>
       </c>
     </row>
     <row r="16">
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.985649227557521</v>
+        <v>2.985649227557054</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7534754678769535</v>
+        <v>0.753475467876991</v>
       </c>
     </row>
     <row r="17">
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1641.941838373938</v>
+        <v>-16.41941838373809</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4403468533616194</v>
+        <v>0.4403468533616556</v>
       </c>
     </row>
   </sheetData>
@@ -1930,10 +1930,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5392.500760106766</v>
+        <v>5392.500759463356</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0008130932269245786</v>
+        <v>0.000813093227875901</v>
       </c>
     </row>
     <row r="3">
@@ -1943,10 +1943,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-731.559965106671</v>
+        <v>-731.5599649518224</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5075304804570294</v>
+        <v>0.5075304804563375</v>
       </c>
     </row>
     <row r="4">
@@ -1956,10 +1956,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>502.3377172553595</v>
+        <v>502.3377172879402</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2067770931365434</v>
+        <v>0.2067770930969489</v>
       </c>
     </row>
     <row r="5">
@@ -1969,10 +1969,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80.7939484993949</v>
+        <v>80.79394851738454</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8254923618660731</v>
+        <v>0.8254923618252166</v>
       </c>
     </row>
     <row r="6">
@@ -1982,10 +1982,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>472.4331894891549</v>
+        <v>472.4331896786476</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4038734141653376</v>
+        <v>0.4038734139770873</v>
       </c>
     </row>
     <row r="7">
@@ -1995,10 +1995,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>526.7441352359365</v>
+        <v>526.7441352905724</v>
       </c>
       <c r="C7" t="n">
-        <v>0.288138189101235</v>
+        <v>0.2881381890530902</v>
       </c>
     </row>
     <row r="8">
@@ -2008,10 +2008,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>749.0749022888992</v>
+        <v>749.0749023327427</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02488716251961977</v>
+        <v>0.02488716251059507</v>
       </c>
     </row>
     <row r="9">
@@ -2021,10 +2021,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-85.4701732134684</v>
+        <v>-85.4701733394531</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5351513267956863</v>
+        <v>0.5351513261719953</v>
       </c>
     </row>
     <row r="10">
@@ -2034,10 +2034,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1948.996019393504</v>
+        <v>-1948.996019337894</v>
       </c>
       <c r="C10" t="n">
-        <v>4.905955434102503e-11</v>
+        <v>4.905955442962247e-11</v>
       </c>
     </row>
     <row r="11">
@@ -2047,10 +2047,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.32509079426879</v>
+        <v>10.32509079611906</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4509453404633769</v>
+        <v>0.4509453403803835</v>
       </c>
     </row>
     <row r="12">
@@ -2060,10 +2060,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-177.762849389344</v>
+        <v>-177.7628492658415</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04092340865334278</v>
+        <v>0.04092340878920878</v>
       </c>
     </row>
     <row r="13">
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>721.8136640983039</v>
+        <v>721.8136640669504</v>
       </c>
       <c r="C13" t="n">
-        <v>3.161610220362105e-19</v>
+        <v>3.161610230062546e-19</v>
       </c>
     </row>
     <row r="14">
@@ -2086,10 +2086,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.05894359083296589</v>
+        <v>-5.894359085858056</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1519326571547616</v>
+        <v>0.1519326569752102</v>
       </c>
     </row>
     <row r="15">
@@ -2099,10 +2099,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.30754666492314e-06</v>
+        <v>4.307546631810928</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8173058389108594</v>
+        <v>0.8173058402828198</v>
       </c>
     </row>
     <row r="16">
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.56587207280698</v>
+        <v>16.56587207280628</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08426025600289684</v>
+        <v>0.08426025600291009</v>
       </c>
     </row>
     <row r="17">
@@ -2125,10 +2125,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1243.819020513504</v>
+        <v>-12.43819020513359</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5530533038448426</v>
+        <v>0.5530533038448893</v>
       </c>
     </row>
   </sheetData>
@@ -2174,10 +2174,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6218.89148154914</v>
+        <v>6218.891479651451</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001136633391525924</v>
+        <v>0.000113663339472909</v>
       </c>
     </row>
     <row r="3">
@@ -2187,10 +2187,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-505.8726518650565</v>
+        <v>-505.8726517824564</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6208508563646928</v>
+        <v>0.6208508563647199</v>
       </c>
     </row>
     <row r="4">
@@ -2200,10 +2200,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-3.484045256464924</v>
+        <v>-3.48404512615582</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9930166034681105</v>
+        <v>0.9930166037284054</v>
       </c>
     </row>
     <row r="5">
@@ -2213,10 +2213,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-127.4564482468237</v>
+        <v>-127.4564480332484</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7261101239658315</v>
+        <v>0.7261101243369978</v>
       </c>
     </row>
     <row r="6">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>257.3305606145106</v>
+        <v>257.3305604695543</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6551816844292162</v>
+        <v>0.655181684610798</v>
       </c>
     </row>
     <row r="7">
@@ -2239,10 +2239,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>295.0578606270946</v>
+        <v>295.0578606157854</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5530163915127234</v>
+        <v>0.5530163915273106</v>
       </c>
     </row>
     <row r="8">
@@ -2252,10 +2252,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>769.917372015374</v>
+        <v>769.9173720768516</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02018724733730949</v>
+        <v>0.02018724732632873</v>
       </c>
     </row>
     <row r="9">
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>27.00485075879689</v>
+        <v>27.00485068341298</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8416565221678071</v>
+        <v>0.8416565225947297</v>
       </c>
     </row>
     <row r="10">
@@ -2278,10 +2278,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1815.260195702998</v>
+        <v>-1815.260195705133</v>
       </c>
       <c r="C10" t="n">
-        <v>7.069339214344988e-10</v>
+        <v>7.069339213868827e-10</v>
       </c>
     </row>
     <row r="11">
@@ -2291,10 +2291,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.31677343917054</v>
+        <v>3.316773435851907</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8070772545862627</v>
+        <v>0.8070772547757383</v>
       </c>
     </row>
     <row r="12">
@@ -2304,10 +2304,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-227.9247677845364</v>
+        <v>-227.9247678254065</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00886711419490714</v>
+        <v>0.008867114181768269</v>
       </c>
     </row>
     <row r="13">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>693.8625867281233</v>
+        <v>693.8625868942027</v>
       </c>
       <c r="C13" t="n">
-        <v>1.149667365635502e-17</v>
+        <v>1.14966733560695e-17</v>
       </c>
     </row>
     <row r="14">
@@ -2330,10 +2330,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.04593982809305747</v>
+        <v>-4.593982811154776</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2528106291712313</v>
+        <v>0.2528106289943051</v>
       </c>
     </row>
     <row r="15">
@@ -2343,10 +2343,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-6.213681143392877e-06</v>
+        <v>-6.213681101445751</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7500166969595478</v>
+        <v>0.7500166987045152</v>
       </c>
     </row>
     <row r="16">
@@ -2356,10 +2356,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11.87866133230809</v>
+        <v>11.87866133230773</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2164608185763316</v>
+        <v>0.2164608185763464</v>
       </c>
     </row>
     <row r="17">
@@ -2369,10 +2369,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-371.2513892437603</v>
+        <v>-3.712513892434874</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8609574706317564</v>
+        <v>0.8609574706318581</v>
       </c>
     </row>
   </sheetData>
@@ -2418,10 +2418,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7818.257272575088</v>
+        <v>7818.257274757961</v>
       </c>
       <c r="C2" t="n">
-        <v>1.202066683426833e-06</v>
+        <v>1.202066679188506e-06</v>
       </c>
     </row>
     <row r="3">
@@ -2431,10 +2431,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-551.2866806432107</v>
+        <v>-551.2866808320134</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6099295281507071</v>
+        <v>0.6099295281514003</v>
       </c>
     </row>
     <row r="4">
@@ -2444,10 +2444,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>597.74825170441</v>
+        <v>597.7482515836434</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1333126915292159</v>
+        <v>0.1333126916497698</v>
       </c>
     </row>
     <row r="5">
@@ -2457,10 +2457,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>99.13009075374573</v>
+        <v>99.13009044660318</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7853790123906152</v>
+        <v>0.7853790131110998</v>
       </c>
     </row>
     <row r="6">
@@ -2470,10 +2470,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-19.94912551063703</v>
+        <v>-19.94912555898566</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9722903261183982</v>
+        <v>0.9722903260512512</v>
       </c>
     </row>
     <row r="7">
@@ -2483,10 +2483,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>355.6742621866875</v>
+        <v>355.6742621698312</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4705278232292675</v>
+        <v>0.4705278232495793</v>
       </c>
     </row>
     <row r="8">
@@ -2496,10 +2496,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>737.7246226590569</v>
+        <v>737.7246225508567</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02576981431319855</v>
+        <v>0.02576981433703711</v>
       </c>
     </row>
     <row r="9">
@@ -2509,10 +2509,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-32.29990237706661</v>
+        <v>-32.29990233882455</v>
       </c>
       <c r="C9" t="n">
-        <v>0.812046494335908</v>
+        <v>0.8120464945596872</v>
       </c>
     </row>
     <row r="10">
@@ -2522,10 +2522,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1742.949262418005</v>
+        <v>-1742.949262357482</v>
       </c>
       <c r="C10" t="n">
-        <v>3.221995626767896e-09</v>
+        <v>3.221995632756003e-09</v>
       </c>
     </row>
     <row r="11">
@@ -2535,10 +2535,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-9.170344897926027</v>
+        <v>-9.170344897499454</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4963988902976622</v>
+        <v>0.496398890317541</v>
       </c>
     </row>
     <row r="12">
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-196.2576740315334</v>
+        <v>-196.2576740828045</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02342718612306041</v>
+        <v>0.02342718608379503</v>
       </c>
     </row>
     <row r="13">
@@ -2561,10 +2561,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>691.0708999954154</v>
+        <v>691.0708998994156</v>
       </c>
       <c r="C13" t="n">
-        <v>7.377296665522375e-18</v>
+        <v>7.37729678239579e-18</v>
       </c>
     </row>
     <row r="14">
@@ -2574,10 +2574,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0556043780600861</v>
+        <v>-5.56043780958053</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1723853250744261</v>
+        <v>0.1723853248109819</v>
       </c>
     </row>
     <row r="15">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-9.09616741710021e-06</v>
+        <v>-9.09616738071168</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6268724552472202</v>
+        <v>0.626872456623758</v>
       </c>
     </row>
     <row r="16">
@@ -2600,10 +2600,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.297069505029325</v>
+        <v>2.297069505028732</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8109982519541866</v>
+        <v>0.8109982519542357</v>
       </c>
     </row>
     <row r="17">
@@ -2613,10 +2613,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-54.07620861406116</v>
+        <v>-0.5407620861385527</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9794561648216427</v>
+        <v>0.9794561648217209</v>
       </c>
     </row>
   </sheetData>
